--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2736683506752229</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.865260913357361</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.99241655217152</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23.93728573277247</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004328892538165707</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="O2">
+        <v>21.84265730734791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1956976204933483</v>
+      </c>
+      <c r="D3">
+        <v>1.294538813301273</v>
+      </c>
+      <c r="E3">
+        <v>2.005300822404607</v>
+      </c>
+      <c r="F3">
+        <v>16.9454595012233</v>
+      </c>
+      <c r="G3">
+        <v>0.0005174389398902612</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.749683652115266</v>
+      </c>
+      <c r="O3">
+        <v>15.43436152029093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1654726175550252</v>
+      </c>
+      <c r="D4">
+        <v>1.08434084545172</v>
+      </c>
+      <c r="E4">
+        <v>1.662240258407067</v>
+      </c>
+      <c r="F4">
+        <v>14.29169672226055</v>
+      </c>
+      <c r="G4">
+        <v>0.0005526468594562757</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.187481969422947</v>
+      </c>
+      <c r="O4">
+        <v>13.00884111524721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1547289338675455</v>
+      </c>
+      <c r="D5">
+        <v>1.010756329311988</v>
+      </c>
+      <c r="E5">
+        <v>1.544029085471522</v>
+      </c>
+      <c r="F5">
+        <v>13.35434315775098</v>
+      </c>
+      <c r="G5">
+        <v>0.0005656225718979539</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>5.958052239810513</v>
+      </c>
+      <c r="O5">
+        <v>12.15280638684669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1530131794705767</v>
+      </c>
+      <c r="D6">
+        <v>0.9990557150485699</v>
+      </c>
+      <c r="E6">
+        <v>1.525313552620503</v>
+      </c>
+      <c r="F6">
+        <v>13.20492081892672</v>
+      </c>
+      <c r="G6">
+        <v>0.0005677202723766841</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>5.919936152110552</v>
+      </c>
+      <c r="O6">
+        <v>12.01637815472981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1653226919151365</v>
+      </c>
+      <c r="D7">
+        <v>1.083310137137914</v>
+      </c>
+      <c r="E7">
+        <v>1.660578198348205</v>
+      </c>
+      <c r="F7">
+        <v>14.27859565634225</v>
+      </c>
+      <c r="G7">
+        <v>0.0005528261118370948</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="O7">
+        <v>12.99687423699038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D8">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E8">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F8">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G8">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O8">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D9">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E9">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F9">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G9">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O9">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D10">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E10">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F10">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G10">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O10">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D11">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E11">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F11">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G11">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O11">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D12">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E12">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F12">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G12">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O12">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D13">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E13">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F13">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G13">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O13">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D14">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E14">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F14">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G14">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O14">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D15">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E15">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F15">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G15">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O15">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D16">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E16">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F16">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G16">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O16">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D17">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E17">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F17">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G17">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O17">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D18">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E18">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F18">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G18">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O18">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D19">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E19">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F19">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G19">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O19">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D20">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E20">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F20">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G20">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O20">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D21">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E21">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F21">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G21">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O21">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D22">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E22">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F22">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G22">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O22">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D23">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E23">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F23">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G23">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O23">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D24">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E24">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F24">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G24">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O24">
+        <v>18.94908375353936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.238850145726758</v>
+      </c>
+      <c r="D25">
+        <v>1.604374428987001</v>
+      </c>
+      <c r="E25">
+        <v>2.529023344957508</v>
+      </c>
+      <c r="F25">
+        <v>20.7842521998478</v>
+      </c>
+      <c r="G25">
+        <v>0.0004697661574676417</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>7.348453399592586</v>
+      </c>
+      <c r="O25">
+        <v>18.94908375353936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2736683506752229</v>
+        <v>0.1467177931698131</v>
       </c>
       <c r="D2">
-        <v>1.865260913357361</v>
+        <v>0.1140802233478126</v>
       </c>
       <c r="E2">
-        <v>2.99241655217152</v>
+        <v>0.08781646702304968</v>
       </c>
       <c r="F2">
-        <v>23.93728573277247</v>
+        <v>0.8959652683484833</v>
       </c>
       <c r="G2">
-        <v>0.0004328892538165707</v>
+        <v>0.0008110765853243239</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6265023494018678</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09306419224467533</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.305562509967217</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1049736411882165</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0.9758174946583438</v>
       </c>
       <c r="O2">
-        <v>21.84265730734791</v>
+        <v>2.182246692633271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1956976204933483</v>
+        <v>0.1324442352611754</v>
       </c>
       <c r="D3">
-        <v>1.294538813301273</v>
+        <v>0.102463678606405</v>
       </c>
       <c r="E3">
-        <v>2.005300822404607</v>
+        <v>0.08125664106856689</v>
       </c>
       <c r="F3">
-        <v>16.9454595012233</v>
+        <v>0.8587095521075767</v>
       </c>
       <c r="G3">
-        <v>0.0005174389398902612</v>
+        <v>0.0008154714541241559</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6013052845593094</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08838652812005421</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.878441960453955</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09899786643538988</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.749683652115266</v>
+        <v>0.9746331506696819</v>
       </c>
       <c r="O3">
-        <v>15.43436152029093</v>
+        <v>2.116021474084846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1654726175550252</v>
+        <v>0.1237796588418263</v>
       </c>
       <c r="D4">
-        <v>1.08434084545172</v>
+        <v>0.09538768958952204</v>
       </c>
       <c r="E4">
-        <v>1.662240258407067</v>
+        <v>0.07730858741126667</v>
       </c>
       <c r="F4">
-        <v>14.29169672226055</v>
+        <v>0.8375258867230286</v>
       </c>
       <c r="G4">
-        <v>0.0005526468594562757</v>
+        <v>0.0008182607282284579</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.587049511361009</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08563197837298375</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.616637492451588</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09544004670109985</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0.9749066390293137</v>
       </c>
       <c r="O4">
-        <v>13.00884111524721</v>
+        <v>2.080067085360696</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1547289338675455</v>
+        <v>0.1202720806009694</v>
       </c>
       <c r="D5">
-        <v>1.010756329311988</v>
+        <v>0.09251734887175189</v>
       </c>
       <c r="E5">
-        <v>1.544029085471522</v>
+        <v>0.0757186870006592</v>
       </c>
       <c r="F5">
-        <v>13.35434315775098</v>
+        <v>0.8292971700967158</v>
       </c>
       <c r="G5">
-        <v>0.0005656225718979539</v>
+        <v>0.0008194206245129016</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5815302513027447</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08453762880790094</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.510031091888493</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0940168766706222</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810513</v>
+        <v>0.9752617660082521</v>
       </c>
       <c r="O5">
-        <v>12.15280638684669</v>
+        <v>2.066539869976083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1530131794705767</v>
+        <v>0.1196910096796415</v>
       </c>
       <c r="D6">
-        <v>0.9990557150485699</v>
+        <v>0.09204149750070201</v>
       </c>
       <c r="E6">
-        <v>1.525313552620503</v>
+        <v>0.07545580013978181</v>
       </c>
       <c r="F6">
-        <v>13.20492081892672</v>
+        <v>0.8279545770504413</v>
       </c>
       <c r="G6">
-        <v>0.0005677202723766841</v>
+        <v>0.0008196146399998926</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5806308636311996</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08435757341734629</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.492333181863302</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09378213380335865</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>0.9753352284944583</v>
       </c>
       <c r="O6">
-        <v>12.01637815472981</v>
+        <v>2.064359921773644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1653226919151365</v>
+        <v>0.1237322622246353</v>
       </c>
       <c r="D7">
-        <v>1.083310137137914</v>
+        <v>0.09534892714552967</v>
       </c>
       <c r="E7">
-        <v>1.660578198348205</v>
+        <v>0.07728707006022262</v>
       </c>
       <c r="F7">
-        <v>14.27859565634225</v>
+        <v>0.8374133040867733</v>
       </c>
       <c r="G7">
-        <v>0.0005528261118370948</v>
+        <v>0.0008182762763617609</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5869739220972932</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08561710741389916</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.615199473795229</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09542074704427961</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>0.974910451917296</v>
       </c>
       <c r="O7">
-        <v>12.99687423699038</v>
+        <v>2.079880175932772</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.238850145726758</v>
+        <v>0.1417745742407277</v>
       </c>
       <c r="D8">
-        <v>1.604374428987001</v>
+        <v>0.1100624308431577</v>
       </c>
       <c r="E8">
-        <v>2.529023344957508</v>
+        <v>0.08553742648464535</v>
       </c>
       <c r="F8">
-        <v>20.7842521998478</v>
+        <v>0.882755111476655</v>
       </c>
       <c r="G8">
-        <v>0.0004697661574676417</v>
+        <v>0.0008125733421546295</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6175525664865589</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.09142606288168764</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.158178103498415</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1028892664795791</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592586</v>
+        <v>0.975196508484288</v>
       </c>
       <c r="O8">
-        <v>18.94908375353936</v>
+        <v>2.158398337768944</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.238850145726758</v>
+        <v>0.1780277208232945</v>
       </c>
       <c r="D9">
-        <v>1.604374428987001</v>
+        <v>0.1394169112185182</v>
       </c>
       <c r="E9">
-        <v>2.529023344957508</v>
+        <v>0.1024012471593316</v>
       </c>
       <c r="F9">
-        <v>20.7842521998478</v>
+        <v>0.986123693387583</v>
       </c>
       <c r="G9">
-        <v>0.0004697661574676417</v>
+        <v>0.0008020907898291211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6879037766527247</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1038181030337668</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.22812152588034</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1184825032243211</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7.348453399592586</v>
+        <v>0.9840809564556849</v>
       </c>
       <c r="O9">
-        <v>18.94908375353936</v>
+        <v>2.352572377131366</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.238850145726758</v>
+        <v>0.2053202895841792</v>
       </c>
       <c r="D10">
-        <v>1.604374428987001</v>
+        <v>0.1613687067077052</v>
       </c>
       <c r="E10">
-        <v>2.529023344957508</v>
+        <v>0.1152874466854144</v>
       </c>
       <c r="F10">
-        <v>20.7842521998478</v>
+        <v>1.072410833946847</v>
       </c>
       <c r="G10">
-        <v>0.0004697661574676417</v>
+        <v>0.0007947875009949002</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.747025398008013</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1136340251371877</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>5.019825183502178</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1306125172004542</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>7.348453399592586</v>
+        <v>0.9962538618232202</v>
       </c>
       <c r="O10">
-        <v>18.94908375353936</v>
+        <v>2.523951335106887</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.238850145726758</v>
+        <v>0.2179092788247203</v>
       </c>
       <c r="D11">
-        <v>1.604374428987001</v>
+        <v>0.1714578878629283</v>
       </c>
       <c r="E11">
-        <v>2.529023344957508</v>
+        <v>0.1212763825030194</v>
       </c>
       <c r="F11">
-        <v>20.7842521998478</v>
+        <v>1.114276589292629</v>
       </c>
       <c r="G11">
-        <v>0.0004697661574676417</v>
+        <v>0.0007915446714063776</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.775799166557043</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1182783447255176</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5.381812829845842</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1363000773200156</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7.348453399592586</v>
+        <v>1.003154478337962</v>
       </c>
       <c r="O11">
-        <v>18.94908375353936</v>
+        <v>2.60915892658798</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.238850145726758</v>
+        <v>0.2227040015411603</v>
       </c>
       <c r="D12">
-        <v>1.604374428987001</v>
+        <v>0.1752949151397445</v>
       </c>
       <c r="E12">
-        <v>2.529023344957508</v>
+        <v>0.1235641650051491</v>
       </c>
       <c r="F12">
-        <v>20.7842521998478</v>
+        <v>1.130538668115534</v>
       </c>
       <c r="G12">
-        <v>0.0004697661574676417</v>
+        <v>0.0007903275243255478</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7869888970845764</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1200649425606883</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5.519205446959461</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1384802410490664</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>7.348453399592586</v>
+        <v>1.005975892004059</v>
       </c>
       <c r="O12">
-        <v>18.94908375353936</v>
+        <v>2.642557399390739</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.238850145726758</v>
+        <v>0.2216701035800952</v>
       </c>
       <c r="D13">
-        <v>1.604374428987001</v>
+        <v>0.1744677826498986</v>
       </c>
       <c r="E13">
-        <v>2.529023344957508</v>
+        <v>0.1230705373562131</v>
       </c>
       <c r="F13">
-        <v>20.7842521998478</v>
+        <v>1.127017627859644</v>
       </c>
       <c r="G13">
-        <v>0.0004697661574676417</v>
+        <v>0.0007905891862290982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7845655313199202</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1196788900725707</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.48960057856948</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1380094953632138</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>7.348453399592586</v>
+        <v>1.005358780727235</v>
       </c>
       <c r="O13">
-        <v>18.94908375353936</v>
+        <v>2.635312577046648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.238850145726758</v>
+        <v>0.2183031758889769</v>
       </c>
       <c r="D14">
-        <v>1.604374428987001</v>
+        <v>0.1717732224524013</v>
       </c>
       <c r="E14">
-        <v>2.529023344957508</v>
+        <v>0.1214641909844296</v>
       </c>
       <c r="F14">
-        <v>20.7842521998478</v>
+        <v>1.115606099233219</v>
       </c>
       <c r="G14">
-        <v>0.0004697661574676417</v>
+        <v>0.0007914443222235661</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7767137246542077</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1184247572316579</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5.393109564462748</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1364788992906369</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>7.348453399592586</v>
+        <v>1.003382349551174</v>
       </c>
       <c r="O14">
-        <v>18.94908375353936</v>
+        <v>2.611883407299814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.238850145726758</v>
+        <v>0.2162445032805778</v>
       </c>
       <c r="D15">
-        <v>1.604374428987001</v>
+        <v>0.1701249224569068</v>
       </c>
       <c r="E15">
-        <v>2.529023344957508</v>
+        <v>0.1204829003860368</v>
       </c>
       <c r="F15">
-        <v>20.7842521998478</v>
+        <v>1.108670407560069</v>
       </c>
       <c r="G15">
-        <v>0.0004697661574676417</v>
+        <v>0.0007919695115454761</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7719432465800864</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1176602640847406</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.334048755120079</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1355448668674981</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>7.348453399592586</v>
+        <v>1.002199234998869</v>
       </c>
       <c r="O15">
-        <v>18.94908375353936</v>
+        <v>2.597682602551259</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.238850145726758</v>
+        <v>0.2045012780770747</v>
       </c>
       <c r="D16">
-        <v>1.604374428987001</v>
+        <v>0.1607115684349338</v>
       </c>
       <c r="E16">
-        <v>2.529023344957508</v>
+        <v>0.114898748147116</v>
       </c>
       <c r="F16">
-        <v>20.7842521998478</v>
+        <v>1.069730130079108</v>
       </c>
       <c r="G16">
-        <v>0.0004697661574676417</v>
+        <v>0.0007950009774988498</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7451847473966993</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1133342904628094</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.996209722266713</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1302444034393204</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7.348453399592586</v>
+        <v>0.9958313498284923</v>
       </c>
       <c r="O16">
-        <v>18.94908375353936</v>
+        <v>2.518536192885506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.238850145726758</v>
+        <v>0.1973434088424426</v>
       </c>
       <c r="D17">
-        <v>1.604374428987001</v>
+        <v>0.1549643359686002</v>
       </c>
       <c r="E17">
-        <v>2.529023344957508</v>
+        <v>0.1115066987682809</v>
       </c>
       <c r="F17">
-        <v>20.7842521998478</v>
+        <v>1.046533335368323</v>
       </c>
       <c r="G17">
-        <v>0.0004697661574676417</v>
+        <v>0.0007968806339326692</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7292667429133886</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1107277760763736</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.789462387482502</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1270375627113225</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7.348453399592586</v>
+        <v>0.9922824502801149</v>
       </c>
       <c r="O17">
-        <v>18.94908375353936</v>
+        <v>2.47190051112787</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.238850145726758</v>
+        <v>0.193242551992526</v>
       </c>
       <c r="D18">
-        <v>1.604374428987001</v>
+        <v>0.1516682885067553</v>
       </c>
       <c r="E18">
-        <v>2.529023344957508</v>
+        <v>0.1095675240291776</v>
       </c>
       <c r="F18">
-        <v>20.7842521998478</v>
+        <v>1.033435037731664</v>
       </c>
       <c r="G18">
-        <v>0.0004697661574676417</v>
+        <v>0.0007979692803134651</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.720286485001381</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1092452887697988</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>4.670716427928824</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1252089021501348</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>7.348453399592586</v>
+        <v>0.9903687319781085</v>
       </c>
       <c r="O18">
-        <v>18.94908375353936</v>
+        <v>2.44575318979156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.238850145726758</v>
+        <v>0.1918567717001878</v>
       </c>
       <c r="D19">
-        <v>1.604374428987001</v>
+        <v>0.1505539059989474</v>
       </c>
       <c r="E19">
-        <v>2.529023344957508</v>
+        <v>0.1089129384543064</v>
       </c>
       <c r="F19">
-        <v>20.7842521998478</v>
+        <v>1.029041110998918</v>
       </c>
       <c r="G19">
-        <v>0.0004697661574676417</v>
+        <v>0.0007983391856836842</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.7172753529028881</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1087461511193908</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4.63053872271928</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1245924085251744</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>7.348453399592586</v>
+        <v>0.9897423204286895</v>
       </c>
       <c r="O19">
-        <v>18.94908375353936</v>
+        <v>2.437013669244237</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.238850145726758</v>
+        <v>0.1981036854870979</v>
       </c>
       <c r="D20">
-        <v>1.604374428987001</v>
+        <v>0.1555751327796031</v>
       </c>
       <c r="E20">
-        <v>2.529023344957508</v>
+        <v>0.1118665510226151</v>
       </c>
       <c r="F20">
-        <v>20.7842521998478</v>
+        <v>1.04897720378797</v>
       </c>
       <c r="G20">
-        <v>0.0004697661574676417</v>
+        <v>0.0007966797673813075</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7309429279500037</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1110034993862712</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.811453077888132</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1273772839009766</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>7.348453399592586</v>
+        <v>0.9926469531717146</v>
       </c>
       <c r="O20">
-        <v>18.94908375353936</v>
+        <v>2.476794333633109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.238850145726758</v>
+        <v>0.2192913548746134</v>
       </c>
       <c r="D21">
-        <v>1.604374428987001</v>
+        <v>0.1725642193758716</v>
       </c>
       <c r="E21">
-        <v>2.529023344957508</v>
+        <v>0.1219354599475402</v>
       </c>
       <c r="F21">
-        <v>20.7842521998478</v>
+        <v>1.118946585062488</v>
       </c>
       <c r="G21">
-        <v>0.0004697661574676417</v>
+        <v>0.0007911928586974523</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7790118226803031</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1187923514132834</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>5.421442312738691</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1369277388393186</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7.348453399592586</v>
+        <v>1.003957119758581</v>
       </c>
       <c r="O21">
-        <v>18.94908375353936</v>
+        <v>2.61873364233054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.238850145726758</v>
+        <v>0.2333006302867489</v>
       </c>
       <c r="D22">
-        <v>1.604374428987001</v>
+        <v>0.183764438873709</v>
       </c>
       <c r="E22">
-        <v>2.529023344957508</v>
+        <v>0.1286329371631005</v>
       </c>
       <c r="F22">
-        <v>20.7842521998478</v>
+        <v>1.167073173787429</v>
       </c>
       <c r="G22">
-        <v>0.0004697661574676417</v>
+        <v>0.0007876697407953295</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.8121519092005087</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1240465284620242</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.821973089925052</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1433244931513968</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>7.348453399592586</v>
+        <v>1.012569449504824</v>
       </c>
       <c r="O22">
-        <v>18.94908375353936</v>
+        <v>2.718145378642987</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.238850145726758</v>
+        <v>0.2258078900918292</v>
       </c>
       <c r="D23">
-        <v>1.604374428987001</v>
+        <v>0.1777772344419191</v>
       </c>
       <c r="E23">
-        <v>2.529023344957508</v>
+        <v>0.1250470968746633</v>
       </c>
       <c r="F23">
-        <v>20.7842521998478</v>
+        <v>1.141156302625291</v>
       </c>
       <c r="G23">
-        <v>0.0004697661574676417</v>
+        <v>0.0007895445445831545</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.79429841057636</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1212265406241286</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>5.608013221685042</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1398955341586472</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7.348453399592586</v>
+        <v>1.007856918451409</v>
       </c>
       <c r="O23">
-        <v>18.94908375353936</v>
+        <v>2.664447747254684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.238850145726758</v>
+        <v>0.197759920076976</v>
       </c>
       <c r="D24">
-        <v>1.604374428987001</v>
+        <v>0.1552989663929054</v>
       </c>
       <c r="E24">
-        <v>2.529023344957508</v>
+        <v>0.1117038278047993</v>
       </c>
       <c r="F24">
-        <v>20.7842521998478</v>
+        <v>1.04787159246888</v>
       </c>
       <c r="G24">
-        <v>0.0004697661574676417</v>
+        <v>0.0007967705541254144</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.730184593156622</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1108787951009873</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.801510729788049</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1272236493967114</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>7.348453399592586</v>
+        <v>0.9924817680295206</v>
       </c>
       <c r="O24">
-        <v>18.94908375353936</v>
+        <v>2.474579774527513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.238850145726758</v>
+        <v>0.1681144440292002</v>
       </c>
       <c r="D25">
-        <v>1.604374428987001</v>
+        <v>0.131414204631696</v>
       </c>
       <c r="E25">
-        <v>2.529023344957508</v>
+        <v>0.09775799601385415</v>
       </c>
       <c r="F25">
-        <v>20.7842521998478</v>
+        <v>0.9564604861236177</v>
       </c>
       <c r="G25">
-        <v>0.0004697661574676417</v>
+        <v>0.0008048544609879614</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6676505451372421</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1003485390386345</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.937877207918461</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1141531600130961</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>7.348453399592586</v>
+        <v>0.9807298372251267</v>
       </c>
       <c r="O25">
-        <v>18.94908375353936</v>
+        <v>2.295321589060677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1467177931698131</v>
+        <v>0.1916261221985991</v>
       </c>
       <c r="D2">
-        <v>0.1140802233478126</v>
+        <v>0.1438557052619132</v>
       </c>
       <c r="E2">
-        <v>0.08781646702304968</v>
+        <v>0.1523442560692985</v>
       </c>
       <c r="F2">
-        <v>0.8959652683484833</v>
+        <v>1.856329772453911</v>
       </c>
       <c r="G2">
-        <v>0.0008110765853243239</v>
+        <v>0.002498313024655947</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6265023494018678</v>
+        <v>1.305044519253165</v>
       </c>
       <c r="J2">
-        <v>0.09306419224467533</v>
+        <v>0.1958912783820281</v>
       </c>
       <c r="K2">
-        <v>3.305562509967217</v>
+        <v>1.651681354704237</v>
       </c>
       <c r="L2">
-        <v>0.1049736411882165</v>
+        <v>0.2144890373025561</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9758174946583438</v>
+        <v>1.395055625168936</v>
       </c>
       <c r="O2">
-        <v>2.182246692633271</v>
+        <v>4.793580040525967</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1324442352611754</v>
+        <v>0.1885383805380485</v>
       </c>
       <c r="D3">
-        <v>0.102463678606405</v>
+        <v>0.1411154674472854</v>
       </c>
       <c r="E3">
-        <v>0.08125664106856689</v>
+        <v>0.151341998071171</v>
       </c>
       <c r="F3">
-        <v>0.8587095521075767</v>
+        <v>1.861361175236979</v>
       </c>
       <c r="G3">
-        <v>0.0008154714541241559</v>
+        <v>0.002501295677841409</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6013052845593094</v>
+        <v>1.309014802672166</v>
       </c>
       <c r="J3">
-        <v>0.08838652812005421</v>
+        <v>0.1958234761985622</v>
       </c>
       <c r="K3">
-        <v>2.878441960453955</v>
+        <v>1.526098408042145</v>
       </c>
       <c r="L3">
-        <v>0.09899786643538988</v>
+        <v>0.2140403703250158</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9746331506696819</v>
+        <v>1.398139420227572</v>
       </c>
       <c r="O3">
-        <v>2.116021474084846</v>
+        <v>4.817067947351916</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1237796588418263</v>
+        <v>0.1867104894596281</v>
       </c>
       <c r="D4">
-        <v>0.09538768958952204</v>
+        <v>0.1394759377343036</v>
       </c>
       <c r="E4">
-        <v>0.07730858741126667</v>
+        <v>0.1507813899653243</v>
       </c>
       <c r="F4">
-        <v>0.8375258867230286</v>
+        <v>1.865406520259185</v>
       </c>
       <c r="G4">
-        <v>0.0008182607282284579</v>
+        <v>0.002503225797293504</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.587049511361009</v>
+        <v>1.312133890792786</v>
       </c>
       <c r="J4">
-        <v>0.08563197837298375</v>
+        <v>0.1958584306702598</v>
       </c>
       <c r="K4">
-        <v>2.616637492451588</v>
+        <v>1.449186388637969</v>
       </c>
       <c r="L4">
-        <v>0.09544004670109985</v>
+        <v>0.2138414519630487</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9749066390293137</v>
+        <v>1.400529146630561</v>
       </c>
       <c r="O4">
-        <v>2.080067085360696</v>
+        <v>4.834076669789226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1202720806009694</v>
+        <v>0.1859827942360965</v>
       </c>
       <c r="D5">
-        <v>0.09251734887175189</v>
+        <v>0.1388187044486102</v>
       </c>
       <c r="E5">
-        <v>0.0757186870006592</v>
+        <v>0.1505667578261622</v>
       </c>
       <c r="F5">
-        <v>0.8292971700967158</v>
+        <v>1.867295488322391</v>
       </c>
       <c r="G5">
-        <v>0.0008194206245129016</v>
+        <v>0.002504037244497925</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5815302513027447</v>
+        <v>1.313576287412673</v>
       </c>
       <c r="J5">
-        <v>0.08453762880790094</v>
+        <v>0.1958919652562479</v>
       </c>
       <c r="K5">
-        <v>2.510031091888493</v>
+        <v>1.417895780953444</v>
       </c>
       <c r="L5">
-        <v>0.0940168766706222</v>
+        <v>0.2137796904905116</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9752617660082521</v>
+        <v>1.401628083798343</v>
       </c>
       <c r="O5">
-        <v>2.066539869976083</v>
+        <v>4.841658248194307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1196910096796415</v>
+        <v>0.1858630015194791</v>
       </c>
       <c r="D6">
-        <v>0.09204149750070201</v>
+        <v>0.1387102313177877</v>
       </c>
       <c r="E6">
-        <v>0.07545580013978181</v>
+        <v>0.1505319543483985</v>
       </c>
       <c r="F6">
-        <v>0.8279545770504413</v>
+        <v>1.867623674620091</v>
       </c>
       <c r="G6">
-        <v>0.0008196146399998926</v>
+        <v>0.002504173491110604</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5806308636311996</v>
+        <v>1.313826145572975</v>
       </c>
       <c r="J6">
-        <v>0.08435757341734629</v>
+        <v>0.1958986996936609</v>
       </c>
       <c r="K6">
-        <v>2.492333181863302</v>
+        <v>1.412703186858778</v>
       </c>
       <c r="L6">
-        <v>0.09378213380335865</v>
+        <v>0.2137706020497987</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9753352284944583</v>
+        <v>1.401818126843651</v>
       </c>
       <c r="O6">
-        <v>2.064359921773644</v>
+        <v>4.842956440930607</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1237322622246353</v>
+        <v>0.18670060580952</v>
       </c>
       <c r="D7">
-        <v>0.09534892714552967</v>
+        <v>0.139467029864683</v>
       </c>
       <c r="E7">
-        <v>0.07728707006022262</v>
+        <v>0.1507784393440303</v>
       </c>
       <c r="F7">
-        <v>0.8374133040867733</v>
+        <v>1.865431021874116</v>
       </c>
       <c r="G7">
-        <v>0.0008182762763617609</v>
+        <v>0.002503236639897943</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5869739220972932</v>
+        <v>1.31215264967237</v>
       </c>
       <c r="J7">
-        <v>0.08561710741389916</v>
+        <v>0.1958588047802863</v>
       </c>
       <c r="K7">
-        <v>2.615199473795229</v>
+        <v>1.448764180355283</v>
       </c>
       <c r="L7">
-        <v>0.09542074704427961</v>
+        <v>0.2138405408217352</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.974910451917296</v>
+        <v>1.400543460318723</v>
       </c>
       <c r="O7">
-        <v>2.079880175932772</v>
+        <v>4.834176284425098</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1417745742407277</v>
+        <v>0.1905474076199596</v>
       </c>
       <c r="D8">
-        <v>0.1100624308431577</v>
+        <v>0.1429019954106394</v>
       </c>
       <c r="E8">
-        <v>0.08553742648464535</v>
+        <v>0.1519873336475577</v>
       </c>
       <c r="F8">
-        <v>0.882755111476655</v>
+        <v>1.857866201005848</v>
       </c>
       <c r="G8">
-        <v>0.0008125733421546295</v>
+        <v>0.002499320990893071</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6175525664865589</v>
+        <v>1.306272074872346</v>
       </c>
       <c r="J8">
-        <v>0.09142606288168764</v>
+        <v>0.1958520238628054</v>
       </c>
       <c r="K8">
-        <v>3.158178103498415</v>
+        <v>1.608340910501681</v>
       </c>
       <c r="L8">
-        <v>0.1028892664795791</v>
+        <v>0.21431847317033</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.975196508484288</v>
+        <v>1.396016103053441</v>
       </c>
       <c r="O8">
-        <v>2.158398337768944</v>
+        <v>4.801141631342318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1780277208232945</v>
+        <v>0.1986271790557055</v>
       </c>
       <c r="D9">
-        <v>0.1394169112185182</v>
+        <v>0.1499760076709578</v>
       </c>
       <c r="E9">
-        <v>0.1024012471593316</v>
+        <v>0.1547909312930322</v>
       </c>
       <c r="F9">
-        <v>0.986123693387583</v>
+        <v>1.850616842972045</v>
       </c>
       <c r="G9">
-        <v>0.0008020907898291211</v>
+        <v>0.002492422631049711</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6879037766527247</v>
+        <v>1.30014657005885</v>
       </c>
       <c r="J9">
-        <v>0.1038181030337668</v>
+        <v>0.1964451687623736</v>
       </c>
       <c r="K9">
-        <v>4.22812152588034</v>
+        <v>1.92274486117276</v>
       </c>
       <c r="L9">
-        <v>0.1184825032243211</v>
+        <v>0.2158614013415203</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9840809564556849</v>
+        <v>1.39106289031379</v>
       </c>
       <c r="O9">
-        <v>2.352572377131366</v>
+        <v>4.756898066690667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2053202895841792</v>
+        <v>0.2048866222253309</v>
       </c>
       <c r="D10">
-        <v>0.1613687067077052</v>
+        <v>0.1553759384977411</v>
       </c>
       <c r="E10">
-        <v>0.1152874466854144</v>
+        <v>0.1571127464875275</v>
       </c>
       <c r="F10">
-        <v>1.072410833946847</v>
+        <v>1.849916775176283</v>
       </c>
       <c r="G10">
-        <v>0.0007947875009949002</v>
+        <v>0.002487825302122958</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.747025398008013</v>
+        <v>1.298944216692597</v>
       </c>
       <c r="J10">
-        <v>0.1136340251371877</v>
+        <v>0.1972492926819314</v>
       </c>
       <c r="K10">
-        <v>5.019825183502178</v>
+        <v>2.154546799831337</v>
       </c>
       <c r="L10">
-        <v>0.1306125172004542</v>
+        <v>0.2173621701655648</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9962538618232202</v>
+        <v>1.389801054595893</v>
       </c>
       <c r="O10">
-        <v>2.523951335106887</v>
+        <v>4.736931488222183</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2179092788247203</v>
+        <v>0.2078036697314332</v>
       </c>
       <c r="D11">
-        <v>0.1714578878629283</v>
+        <v>0.1578758247103593</v>
       </c>
       <c r="E11">
-        <v>0.1212763825030194</v>
+        <v>0.1582255092905207</v>
       </c>
       <c r="F11">
-        <v>1.114276589292629</v>
+        <v>1.850603398092915</v>
       </c>
       <c r="G11">
-        <v>0.0007915446714063776</v>
+        <v>0.002485835099233815</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.775799166557043</v>
+        <v>1.299113993922418</v>
       </c>
       <c r="J11">
-        <v>0.1182783447255176</v>
+        <v>0.1976948236063194</v>
       </c>
       <c r="K11">
-        <v>5.381812829845842</v>
+        <v>2.260157770114176</v>
       </c>
       <c r="L11">
-        <v>0.1363000773200156</v>
+        <v>0.2181242237902055</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.003154478337962</v>
+        <v>1.389740170013184</v>
       </c>
       <c r="O11">
-        <v>2.60915892658798</v>
+        <v>4.730575451298904</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2227040015411603</v>
+        <v>0.2089182103476901</v>
       </c>
       <c r="D12">
-        <v>0.1752949151397445</v>
+        <v>0.1588286409093627</v>
       </c>
       <c r="E12">
-        <v>0.1235641650051491</v>
+        <v>0.1586549769917411</v>
       </c>
       <c r="F12">
-        <v>1.130538668115534</v>
+        <v>1.851007942319541</v>
       </c>
       <c r="G12">
-        <v>0.0007903275243255478</v>
+        <v>0.002485095929553549</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7869888970845764</v>
+        <v>1.299281372230865</v>
       </c>
       <c r="J12">
-        <v>0.1200649425606883</v>
+        <v>0.1978749724897995</v>
       </c>
       <c r="K12">
-        <v>5.519205446959461</v>
+        <v>2.300171369981115</v>
       </c>
       <c r="L12">
-        <v>0.1384802410490664</v>
+        <v>0.2184241625643182</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.005975892004059</v>
+        <v>1.389790640656656</v>
       </c>
       <c r="O12">
-        <v>2.642557399390739</v>
+        <v>4.728561005863298</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2216701035800952</v>
+        <v>0.2086777344046169</v>
       </c>
       <c r="D13">
-        <v>0.1744677826498986</v>
+        <v>0.1586231620665473</v>
       </c>
       <c r="E13">
-        <v>0.1230705373562131</v>
+        <v>0.1585621244009658</v>
       </c>
       <c r="F13">
-        <v>1.127017627859644</v>
+        <v>1.850914388169414</v>
       </c>
       <c r="G13">
-        <v>0.0007905891862290982</v>
+        <v>0.002485254480244938</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7845655313199202</v>
+        <v>1.299240739128265</v>
       </c>
       <c r="J13">
-        <v>0.1196788900725707</v>
+        <v>0.1978356660495351</v>
       </c>
       <c r="K13">
-        <v>5.48960057856948</v>
+        <v>2.291552829272234</v>
       </c>
       <c r="L13">
-        <v>0.1380094953632138</v>
+        <v>0.2183590605982317</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.005358780727235</v>
+        <v>1.389776504883315</v>
       </c>
       <c r="O13">
-        <v>2.635312577046648</v>
+        <v>4.728977393263506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2183031758889769</v>
+        <v>0.2078951653998047</v>
       </c>
       <c r="D14">
-        <v>0.1717732224524013</v>
+        <v>0.1579540904133125</v>
       </c>
       <c r="E14">
-        <v>0.1214641909844296</v>
+        <v>0.1582606800030071</v>
       </c>
       <c r="F14">
-        <v>1.115606099233219</v>
+        <v>1.850633783464843</v>
       </c>
       <c r="G14">
-        <v>0.0007914443222235661</v>
+        <v>0.002485773997543066</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7767137246542077</v>
+        <v>1.299125698086357</v>
       </c>
       <c r="J14">
-        <v>0.1184247572316579</v>
+        <v>0.1977094155359538</v>
       </c>
       <c r="K14">
-        <v>5.393109564462748</v>
+        <v>2.26344930576613</v>
       </c>
       <c r="L14">
-        <v>0.1364788992906369</v>
+        <v>0.2181486724031103</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.003382349551174</v>
+        <v>1.389742850158271</v>
       </c>
       <c r="O14">
-        <v>2.611883407299814</v>
+        <v>4.730401854536069</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2162445032805778</v>
+        <v>0.2074171082486629</v>
       </c>
       <c r="D15">
-        <v>0.1701249224569068</v>
+        <v>0.1575450649608712</v>
       </c>
       <c r="E15">
-        <v>0.1204829003860368</v>
+        <v>0.1580770886636529</v>
       </c>
       <c r="F15">
-        <v>1.108670407560069</v>
+        <v>1.850480727852414</v>
       </c>
       <c r="G15">
-        <v>0.0007919695115454761</v>
+        <v>0.002486094100320302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7719432465800864</v>
+        <v>1.299068657796489</v>
       </c>
       <c r="J15">
-        <v>0.1176602640847406</v>
+        <v>0.1976335718899591</v>
       </c>
       <c r="K15">
-        <v>5.334048755120079</v>
+        <v>2.246237751053627</v>
       </c>
       <c r="L15">
-        <v>0.1355448668674981</v>
+        <v>0.2180212823840293</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.002199234998869</v>
+        <v>1.389731803329539</v>
       </c>
       <c r="O15">
-        <v>2.597682602551259</v>
+        <v>4.731325496255039</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2045012780770747</v>
+        <v>0.2046973790759807</v>
       </c>
       <c r="D16">
-        <v>0.1607115684349338</v>
+        <v>0.1552134319979359</v>
       </c>
       <c r="E16">
-        <v>0.114898748147116</v>
+        <v>0.1570411591111167</v>
       </c>
       <c r="F16">
-        <v>1.069730130079108</v>
+        <v>1.849892128074742</v>
       </c>
       <c r="G16">
-        <v>0.0007950009774988498</v>
+        <v>0.002487957395839874</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7451847473966993</v>
+        <v>1.298947545735949</v>
       </c>
       <c r="J16">
-        <v>0.1133342904628094</v>
+        <v>0.1972217780772993</v>
       </c>
       <c r="K16">
-        <v>4.996209722266713</v>
+        <v>2.147647948153235</v>
       </c>
       <c r="L16">
-        <v>0.1302444034393204</v>
+        <v>0.2173139610300368</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9958313498284923</v>
+        <v>1.389815336554832</v>
       </c>
       <c r="O16">
-        <v>2.518536192885506</v>
+        <v>4.73740176964759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1973434088424426</v>
+        <v>0.2030466744921569</v>
       </c>
       <c r="D17">
-        <v>0.1549643359686002</v>
+        <v>0.1537941161005563</v>
       </c>
       <c r="E17">
-        <v>0.1115066987682809</v>
+        <v>0.1564201040349928</v>
       </c>
       <c r="F17">
-        <v>1.046533335368323</v>
+        <v>1.849788471397531</v>
       </c>
       <c r="G17">
-        <v>0.0007968806339326692</v>
+        <v>0.002489126324611147</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7292667429133886</v>
+        <v>1.299056835659528</v>
       </c>
       <c r="J17">
-        <v>0.1107277760763736</v>
+        <v>0.1969895560843682</v>
       </c>
       <c r="K17">
-        <v>4.789462387482502</v>
+        <v>2.087206336211977</v>
       </c>
       <c r="L17">
-        <v>0.1270375627113225</v>
+        <v>0.2169003332242312</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9922824502801149</v>
+        <v>1.389997818454859</v>
       </c>
       <c r="O17">
-        <v>2.47190051112787</v>
+        <v>4.741828014339717</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.193242551992526</v>
+        <v>0.2021037888764852</v>
       </c>
       <c r="D18">
-        <v>0.1516682885067553</v>
+        <v>0.1529818559019276</v>
       </c>
       <c r="E18">
-        <v>0.1095675240291776</v>
+        <v>0.1560682156769708</v>
       </c>
       <c r="F18">
-        <v>1.033435037731664</v>
+        <v>1.849823454079853</v>
       </c>
       <c r="G18">
-        <v>0.0007979692803134651</v>
+        <v>0.002489808186074482</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.720286485001381</v>
+        <v>1.299187157381652</v>
       </c>
       <c r="J18">
-        <v>0.1092452887697988</v>
+        <v>0.1968634945270082</v>
       </c>
       <c r="K18">
-        <v>4.670716427928824</v>
+        <v>2.052457417076596</v>
       </c>
       <c r="L18">
-        <v>0.1252089021501348</v>
+        <v>0.2166698965451843</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9903687319781085</v>
+        <v>1.390151090679495</v>
       </c>
       <c r="O18">
-        <v>2.44575318979156</v>
+        <v>4.744630518418205</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1918567717001878</v>
+        <v>0.2017856727439522</v>
       </c>
       <c r="D19">
-        <v>0.1505539059989474</v>
+        <v>0.1527075439856134</v>
       </c>
       <c r="E19">
-        <v>0.1089129384543064</v>
+        <v>0.155949988439005</v>
       </c>
       <c r="F19">
-        <v>1.029041110998918</v>
+        <v>1.849851546682444</v>
       </c>
       <c r="G19">
-        <v>0.0007983391856836842</v>
+        <v>0.002490040690375236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7172753529028881</v>
+        <v>1.299242867916881</v>
       </c>
       <c r="J19">
-        <v>0.1087461511193908</v>
+        <v>0.1968221023713923</v>
       </c>
       <c r="K19">
-        <v>4.63053872271928</v>
+        <v>2.040694766216518</v>
       </c>
       <c r="L19">
-        <v>0.1245924085251744</v>
+        <v>0.2165931591651571</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9897423204286895</v>
+        <v>1.390211291984201</v>
       </c>
       <c r="O19">
-        <v>2.437013669244237</v>
+        <v>4.7456234672226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1981036854870979</v>
+        <v>0.2032217169418686</v>
       </c>
       <c r="D20">
-        <v>0.1555751327796031</v>
+        <v>0.1539447817073381</v>
       </c>
       <c r="E20">
-        <v>0.1118665510226151</v>
+        <v>0.1564856654987601</v>
       </c>
       <c r="F20">
-        <v>1.04897720378797</v>
+        <v>1.849789714709274</v>
       </c>
       <c r="G20">
-        <v>0.0007966797673813075</v>
+        <v>0.002489000905055993</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7309429279500037</v>
+        <v>1.299038219435054</v>
       </c>
       <c r="J20">
-        <v>0.1110034993862712</v>
+        <v>0.197013499840935</v>
       </c>
       <c r="K20">
-        <v>4.811453077888132</v>
+        <v>2.093638862734281</v>
       </c>
       <c r="L20">
-        <v>0.1273772839009766</v>
+        <v>0.2169435917018632</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9926469531717146</v>
+        <v>1.389973394596367</v>
       </c>
       <c r="O20">
-        <v>2.476794333633109</v>
+        <v>4.741330268832883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2192913548746134</v>
+        <v>0.2081247564274378</v>
       </c>
       <c r="D21">
-        <v>0.1725642193758716</v>
+        <v>0.1581504463494809</v>
       </c>
       <c r="E21">
-        <v>0.1219354599475402</v>
+        <v>0.1583490023607759</v>
       </c>
       <c r="F21">
-        <v>1.118946585062488</v>
+        <v>1.850712281190312</v>
       </c>
       <c r="G21">
-        <v>0.0007911928586974523</v>
+        <v>0.0024856210104626</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7790118226803031</v>
+        <v>1.299156690492083</v>
       </c>
       <c r="J21">
-        <v>0.1187923514132834</v>
+        <v>0.197746188235044</v>
       </c>
       <c r="K21">
-        <v>5.421442312738691</v>
+        <v>2.271703440832141</v>
       </c>
       <c r="L21">
-        <v>0.1369277388393186</v>
+        <v>0.2182101604092921</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.003957119758581</v>
+        <v>1.389750741930939</v>
       </c>
       <c r="O21">
-        <v>2.61873364233054</v>
+        <v>4.729972802185387</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2333006302867489</v>
+        <v>0.2113869445672663</v>
       </c>
       <c r="D22">
-        <v>0.183764438873709</v>
+        <v>0.1609349793854449</v>
       </c>
       <c r="E22">
-        <v>0.1286329371631005</v>
+        <v>0.1596139266521028</v>
       </c>
       <c r="F22">
-        <v>1.167073173787429</v>
+        <v>1.852157694874137</v>
       </c>
       <c r="G22">
-        <v>0.0007876697407953295</v>
+        <v>0.002483496405161128</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8121519092005087</v>
+        <v>1.299835000491676</v>
       </c>
       <c r="J22">
-        <v>0.1240465284620242</v>
+        <v>0.1982916866974662</v>
       </c>
       <c r="K22">
-        <v>5.821973089925052</v>
+        <v>2.388200316929044</v>
       </c>
       <c r="L22">
-        <v>0.1433244931513968</v>
+        <v>0.2191041632678647</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.012569449504824</v>
+        <v>1.390033676878076</v>
       </c>
       <c r="O22">
-        <v>2.718145378642987</v>
+        <v>4.724837680559745</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2258078900918292</v>
+        <v>0.2096405971395399</v>
       </c>
       <c r="D23">
-        <v>0.1777772344419191</v>
+        <v>0.1594455648863118</v>
       </c>
       <c r="E23">
-        <v>0.1250470968746633</v>
+        <v>0.1589345153376591</v>
       </c>
       <c r="F23">
-        <v>1.141156302625291</v>
+        <v>1.851309163327215</v>
       </c>
       <c r="G23">
-        <v>0.0007895445445831545</v>
+        <v>0.002484622650968411</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.79429841057636</v>
+        <v>1.299417985619087</v>
       </c>
       <c r="J23">
-        <v>0.1212265406241286</v>
+        <v>0.197994455569571</v>
       </c>
       <c r="K23">
-        <v>5.608013221685042</v>
+        <v>2.326013438446012</v>
       </c>
       <c r="L23">
-        <v>0.1398955341586472</v>
+        <v>0.2186209719425563</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.007856918451409</v>
+        <v>1.389843550359515</v>
       </c>
       <c r="O23">
-        <v>2.664447747254684</v>
+        <v>4.727368963612776</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.197759920076976</v>
+        <v>0.2031425611609734</v>
       </c>
       <c r="D24">
-        <v>0.1552989663929054</v>
+        <v>0.1538766541831507</v>
       </c>
       <c r="E24">
-        <v>0.1117038278047993</v>
+        <v>0.156456009071249</v>
       </c>
       <c r="F24">
-        <v>1.04787159246888</v>
+        <v>1.84978885800615</v>
       </c>
       <c r="G24">
-        <v>0.0007967705541254144</v>
+        <v>0.0024890575766401</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.730184593156622</v>
+        <v>1.299046425604026</v>
       </c>
       <c r="J24">
-        <v>0.1108787951009873</v>
+        <v>0.1970026516735146</v>
       </c>
       <c r="K24">
-        <v>4.801510729788049</v>
+        <v>2.090730718025213</v>
       </c>
       <c r="L24">
-        <v>0.1272236493967114</v>
+        <v>0.2169240116048243</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9924817680295206</v>
+        <v>1.38998428595913</v>
       </c>
       <c r="O24">
-        <v>2.474579774527513</v>
+        <v>4.74155449656692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1681144440292002</v>
+        <v>0.1963843604388842</v>
       </c>
       <c r="D25">
-        <v>0.131414204631696</v>
+        <v>0.1480264645415161</v>
       </c>
       <c r="E25">
-        <v>0.09775799601385415</v>
+        <v>0.1539863326862623</v>
       </c>
       <c r="F25">
-        <v>0.9564604861236177</v>
+        <v>1.851765743500238</v>
       </c>
       <c r="G25">
-        <v>0.0008048544609879614</v>
+        <v>0.002494205785170451</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6676505451372421</v>
+        <v>1.301224671566111</v>
       </c>
       <c r="J25">
-        <v>0.1003485390386345</v>
+        <v>0.1962199249687089</v>
       </c>
       <c r="K25">
-        <v>3.937877207918461</v>
+        <v>1.837541695693687</v>
       </c>
       <c r="L25">
-        <v>0.1141531600130961</v>
+        <v>0.215379368589474</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9807298372251267</v>
+        <v>1.391984300616841</v>
       </c>
       <c r="O25">
-        <v>2.295321589060677</v>
+        <v>4.766666498949576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1916261221985991</v>
+        <v>0.1467177931697137</v>
       </c>
       <c r="D2">
-        <v>0.1438557052619132</v>
+        <v>0.1140802233478553</v>
       </c>
       <c r="E2">
-        <v>0.1523442560692985</v>
+        <v>0.08781646702306389</v>
       </c>
       <c r="F2">
-        <v>1.856329772453911</v>
+        <v>0.8959652683484833</v>
       </c>
       <c r="G2">
-        <v>0.002498313024655947</v>
+        <v>0.0008110765853235443</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.305044519253165</v>
+        <v>0.6265023494018678</v>
       </c>
       <c r="J2">
-        <v>0.1958912783820281</v>
+        <v>0.09306419224452611</v>
       </c>
       <c r="K2">
-        <v>1.651681354704237</v>
+        <v>3.305562509967217</v>
       </c>
       <c r="L2">
-        <v>0.2144890373025561</v>
+        <v>0.1049736411880673</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.395055625168936</v>
+        <v>0.9758174946583296</v>
       </c>
       <c r="O2">
-        <v>4.793580040525967</v>
+        <v>2.182246692633242</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1885383805380485</v>
+        <v>0.132444235261417</v>
       </c>
       <c r="D3">
-        <v>0.1411154674472854</v>
+        <v>0.1024636786064832</v>
       </c>
       <c r="E3">
-        <v>0.151341998071171</v>
+        <v>0.08125664106857045</v>
       </c>
       <c r="F3">
-        <v>1.861361175236979</v>
+        <v>0.8587095521075554</v>
       </c>
       <c r="G3">
-        <v>0.002501295677841409</v>
+        <v>0.0008154714541491439</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.309014802672166</v>
+        <v>0.6013052845593236</v>
       </c>
       <c r="J3">
-        <v>0.1958234761985622</v>
+        <v>0.08838652812003289</v>
       </c>
       <c r="K3">
-        <v>1.526098408042145</v>
+        <v>2.878441960453927</v>
       </c>
       <c r="L3">
-        <v>0.2140403703250158</v>
+        <v>0.09899786643546094</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.398139420227572</v>
+        <v>0.974633150669618</v>
       </c>
       <c r="O3">
-        <v>4.817067947351916</v>
+        <v>2.116021474084846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1867104894596281</v>
+        <v>0.1237796588421674</v>
       </c>
       <c r="D4">
-        <v>0.1394759377343036</v>
+        <v>0.09538768958935151</v>
       </c>
       <c r="E4">
-        <v>0.1507813899653243</v>
+        <v>0.07730858741127378</v>
       </c>
       <c r="F4">
-        <v>1.865406520259185</v>
+        <v>0.8375258867230357</v>
       </c>
       <c r="G4">
-        <v>0.002503225797293504</v>
+        <v>0.0008182607282873673</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.312133890792786</v>
+        <v>0.5870495113609877</v>
       </c>
       <c r="J4">
-        <v>0.1958584306702598</v>
+        <v>0.08563197837295178</v>
       </c>
       <c r="K4">
-        <v>1.449186388637969</v>
+        <v>2.616637492451503</v>
       </c>
       <c r="L4">
-        <v>0.2138414519630487</v>
+        <v>0.09544004670112827</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.400529146630561</v>
+        <v>0.9749066390293066</v>
       </c>
       <c r="O4">
-        <v>4.834076669789226</v>
+        <v>2.080067085360582</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1859827942360965</v>
+        <v>0.1202720806009694</v>
       </c>
       <c r="D5">
-        <v>0.1388187044486102</v>
+        <v>0.09251734887187268</v>
       </c>
       <c r="E5">
-        <v>0.1505667578261622</v>
+        <v>0.0757186870006592</v>
       </c>
       <c r="F5">
-        <v>1.867295488322391</v>
+        <v>0.8292971700967158</v>
       </c>
       <c r="G5">
-        <v>0.002504037244497925</v>
+        <v>0.0008194206244535826</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.313576287412673</v>
+        <v>0.5815302513027589</v>
       </c>
       <c r="J5">
-        <v>0.1958919652562479</v>
+        <v>0.08453762880796134</v>
       </c>
       <c r="K5">
-        <v>1.417895780953444</v>
+        <v>2.51003109188855</v>
       </c>
       <c r="L5">
-        <v>0.2137796904905116</v>
+        <v>0.09401687667070746</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.401628083798343</v>
+        <v>0.9752617660082521</v>
       </c>
       <c r="O5">
-        <v>4.841658248194307</v>
+        <v>2.06653986997614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1858630015194791</v>
+        <v>0.1196910096793999</v>
       </c>
       <c r="D6">
-        <v>0.1387102313177877</v>
+        <v>0.09204149750065227</v>
       </c>
       <c r="E6">
-        <v>0.1505319543483985</v>
+        <v>0.0754558001397605</v>
       </c>
       <c r="F6">
-        <v>1.867623674620091</v>
+        <v>0.8279545770504555</v>
       </c>
       <c r="G6">
-        <v>0.002504173491110604</v>
+        <v>0.0008196146399170281</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.313826145572975</v>
+        <v>0.5806308636311783</v>
       </c>
       <c r="J6">
-        <v>0.1958986996936609</v>
+        <v>0.0843575734173676</v>
       </c>
       <c r="K6">
-        <v>1.412703186858778</v>
+        <v>2.492333181863387</v>
       </c>
       <c r="L6">
-        <v>0.2137706020497987</v>
+        <v>0.09378213380323075</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.401818126843651</v>
+        <v>0.9753352284944583</v>
       </c>
       <c r="O6">
-        <v>4.842956440930607</v>
+        <v>2.06435992177353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.18670060580952</v>
+        <v>0.1237322622247774</v>
       </c>
       <c r="D7">
-        <v>0.139467029864683</v>
+        <v>0.09534892714560073</v>
       </c>
       <c r="E7">
-        <v>0.1507784393440303</v>
+        <v>0.07728707006022262</v>
       </c>
       <c r="F7">
-        <v>1.865431021874116</v>
+        <v>0.837413304086752</v>
       </c>
       <c r="G7">
-        <v>0.002503236639897943</v>
+        <v>0.0008182762764203807</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.31215264967237</v>
+        <v>0.5869739220972718</v>
       </c>
       <c r="J7">
-        <v>0.1958588047802863</v>
+        <v>0.08561710741387074</v>
       </c>
       <c r="K7">
-        <v>1.448764180355283</v>
+        <v>2.615199473795201</v>
       </c>
       <c r="L7">
-        <v>0.2138405408217352</v>
+        <v>0.0954207470442725</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.400543460318723</v>
+        <v>0.9749104519172178</v>
       </c>
       <c r="O7">
-        <v>4.834176284425098</v>
+        <v>2.079880175932715</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1905474076199596</v>
+        <v>0.1417745742405003</v>
       </c>
       <c r="D8">
-        <v>0.1429019954106394</v>
+        <v>0.110062430843314</v>
       </c>
       <c r="E8">
-        <v>0.1519873336475577</v>
+        <v>0.08553742648464535</v>
       </c>
       <c r="F8">
-        <v>1.857866201005848</v>
+        <v>0.8827551114766266</v>
       </c>
       <c r="G8">
-        <v>0.002499320990893071</v>
+        <v>0.000812573342124184</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.306272074872346</v>
+        <v>0.6175525664865589</v>
       </c>
       <c r="J8">
-        <v>0.1958520238628054</v>
+        <v>0.09142606288155974</v>
       </c>
       <c r="K8">
-        <v>1.608340910501681</v>
+        <v>3.158178103498358</v>
       </c>
       <c r="L8">
-        <v>0.21431847317033</v>
+        <v>0.1028892664796288</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.396016103053441</v>
+        <v>0.9751965084842737</v>
       </c>
       <c r="O8">
-        <v>4.801141631342318</v>
+        <v>2.158398337769</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1986271790557055</v>
+        <v>0.1780277208233088</v>
       </c>
       <c r="D9">
-        <v>0.1499760076709578</v>
+        <v>0.139416911218504</v>
       </c>
       <c r="E9">
-        <v>0.1547909312930322</v>
+        <v>0.1024012471593174</v>
       </c>
       <c r="F9">
-        <v>1.850616842972045</v>
+        <v>0.9861236933875972</v>
       </c>
       <c r="G9">
-        <v>0.002492422631049711</v>
+        <v>0.0008020907898579606</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.30014657005885</v>
+        <v>0.6879037766527247</v>
       </c>
       <c r="J9">
-        <v>0.1964451687623736</v>
+        <v>0.103818103033845</v>
       </c>
       <c r="K9">
-        <v>1.92274486117276</v>
+        <v>4.22812152588034</v>
       </c>
       <c r="L9">
-        <v>0.2158614013415203</v>
+        <v>0.1184825032244134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.39106289031379</v>
+        <v>0.9840809564556139</v>
       </c>
       <c r="O9">
-        <v>4.756898066690667</v>
+        <v>2.352572377131395</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2048866222253309</v>
+        <v>0.2053202895840371</v>
       </c>
       <c r="D10">
-        <v>0.1553759384977411</v>
+        <v>0.1613687067077052</v>
       </c>
       <c r="E10">
-        <v>0.1571127464875275</v>
+        <v>0.1152874466854321</v>
       </c>
       <c r="F10">
-        <v>1.849916775176283</v>
+        <v>1.072410833946833</v>
       </c>
       <c r="G10">
-        <v>0.002487825302122958</v>
+        <v>0.0007947875009933694</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.298944216692597</v>
+        <v>0.7470253980079917</v>
       </c>
       <c r="J10">
-        <v>0.1972492926819314</v>
+        <v>0.1136340251372019</v>
       </c>
       <c r="K10">
-        <v>2.154546799831337</v>
+        <v>5.019825183502064</v>
       </c>
       <c r="L10">
-        <v>0.2173621701655648</v>
+        <v>0.1306125172004897</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.389801054595893</v>
+        <v>0.9962538618232202</v>
       </c>
       <c r="O10">
-        <v>4.736931488222183</v>
+        <v>2.523951335106887</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2078036697314332</v>
+        <v>0.217909278824834</v>
       </c>
       <c r="D11">
-        <v>0.1578758247103593</v>
+        <v>0.1714578878630419</v>
       </c>
       <c r="E11">
-        <v>0.1582255092905207</v>
+        <v>0.1212763825030194</v>
       </c>
       <c r="F11">
-        <v>1.850603398092915</v>
+        <v>1.114276589292615</v>
       </c>
       <c r="G11">
-        <v>0.002485835099233815</v>
+        <v>0.0007915446714064549</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.299113993922418</v>
+        <v>0.775799166557043</v>
       </c>
       <c r="J11">
-        <v>0.1976948236063194</v>
+        <v>0.1182783447254252</v>
       </c>
       <c r="K11">
-        <v>2.260157770114176</v>
+        <v>5.381812829845728</v>
       </c>
       <c r="L11">
-        <v>0.2181242237902055</v>
+        <v>0.1363000773200298</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.389740170013184</v>
+        <v>1.003154478338033</v>
       </c>
       <c r="O11">
-        <v>4.730575451298904</v>
+        <v>2.609158926587867</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2089182103476901</v>
+        <v>0.2227040015409187</v>
       </c>
       <c r="D12">
-        <v>0.1588286409093627</v>
+        <v>0.1752949151395171</v>
       </c>
       <c r="E12">
-        <v>0.1586549769917411</v>
+        <v>0.1235641650051527</v>
       </c>
       <c r="F12">
-        <v>1.851007942319541</v>
+        <v>1.13053866811552</v>
       </c>
       <c r="G12">
-        <v>0.002485095929553549</v>
+        <v>0.0007903275242953124</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.299281372230865</v>
+        <v>0.7869888970845764</v>
       </c>
       <c r="J12">
-        <v>0.1978749724897995</v>
+        <v>0.1200649425606599</v>
       </c>
       <c r="K12">
-        <v>2.300171369981115</v>
+        <v>5.519205446959518</v>
       </c>
       <c r="L12">
-        <v>0.2184241625643182</v>
+        <v>0.1384802410490806</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.389790640656656</v>
+        <v>1.005975892004074</v>
       </c>
       <c r="O12">
-        <v>4.728561005863298</v>
+        <v>2.642557399390824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2086777344046169</v>
+        <v>0.2216701035799673</v>
       </c>
       <c r="D13">
-        <v>0.1586231620665473</v>
+        <v>0.174467782649856</v>
       </c>
       <c r="E13">
-        <v>0.1585621244009658</v>
+        <v>0.1230705373562166</v>
       </c>
       <c r="F13">
-        <v>1.850914388169414</v>
+        <v>1.127017627859644</v>
       </c>
       <c r="G13">
-        <v>0.002485254480244938</v>
+        <v>0.000790589186227636</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.299240739128265</v>
+        <v>0.7845655313199273</v>
       </c>
       <c r="J13">
-        <v>0.1978356660495351</v>
+        <v>0.1196788900725707</v>
       </c>
       <c r="K13">
-        <v>2.291552829272234</v>
+        <v>5.48960057856948</v>
       </c>
       <c r="L13">
-        <v>0.2183590605982317</v>
+        <v>0.1380094953631854</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.389776504883315</v>
+        <v>1.005358780727292</v>
       </c>
       <c r="O13">
-        <v>4.728977393263506</v>
+        <v>2.635312577046619</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2078951653998047</v>
+        <v>0.2183031758889911</v>
       </c>
       <c r="D14">
-        <v>0.1579540904133125</v>
+        <v>0.1717732224522308</v>
       </c>
       <c r="E14">
-        <v>0.1582606800030071</v>
+        <v>0.1214641909844509</v>
       </c>
       <c r="F14">
-        <v>1.850633783464843</v>
+        <v>1.115606099233204</v>
       </c>
       <c r="G14">
-        <v>0.002485773997543066</v>
+        <v>0.0007914443222237671</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.299125698086357</v>
+        <v>0.7767137246542148</v>
       </c>
       <c r="J14">
-        <v>0.1977094155359538</v>
+        <v>0.1184247572316508</v>
       </c>
       <c r="K14">
-        <v>2.26344930576613</v>
+        <v>5.393109564462918</v>
       </c>
       <c r="L14">
-        <v>0.2181486724031103</v>
+        <v>0.1364788992905872</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.389742850158271</v>
+        <v>1.003382349551174</v>
       </c>
       <c r="O14">
-        <v>4.730401854536069</v>
+        <v>2.611883407299814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2074171082486629</v>
+        <v>0.2162445032807057</v>
       </c>
       <c r="D15">
-        <v>0.1575450649608712</v>
+        <v>0.1701249224568926</v>
       </c>
       <c r="E15">
-        <v>0.1580770886636529</v>
+        <v>0.1204829003860191</v>
       </c>
       <c r="F15">
-        <v>1.850480727852414</v>
+        <v>1.108670407560069</v>
       </c>
       <c r="G15">
-        <v>0.002486094100320302</v>
+        <v>0.000791969511544699</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.299068657796489</v>
+        <v>0.7719432465800793</v>
       </c>
       <c r="J15">
-        <v>0.1976335718899591</v>
+        <v>0.1176602640847904</v>
       </c>
       <c r="K15">
-        <v>2.246237751053627</v>
+        <v>5.334048755119966</v>
       </c>
       <c r="L15">
-        <v>0.2180212823840293</v>
+        <v>0.1355448668674271</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.389731803329539</v>
+        <v>1.002199234998926</v>
       </c>
       <c r="O15">
-        <v>4.731325496255039</v>
+        <v>2.597682602551231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2046973790759807</v>
+        <v>0.2045012780769753</v>
       </c>
       <c r="D16">
-        <v>0.1552134319979359</v>
+        <v>0.1607115684349623</v>
       </c>
       <c r="E16">
-        <v>0.1570411591111167</v>
+        <v>0.1148987481471124</v>
       </c>
       <c r="F16">
-        <v>1.849892128074742</v>
+        <v>1.069730130079137</v>
       </c>
       <c r="G16">
-        <v>0.002487957395839874</v>
+        <v>0.0007950009774989437</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.298947545735949</v>
+        <v>0.7451847473967064</v>
       </c>
       <c r="J16">
-        <v>0.1972217780772993</v>
+        <v>0.113334290462781</v>
       </c>
       <c r="K16">
-        <v>2.147647948153235</v>
+        <v>4.996209722266656</v>
       </c>
       <c r="L16">
-        <v>0.2173139610300368</v>
+        <v>0.1302444034393559</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.389815336554832</v>
+        <v>0.9958313498285207</v>
       </c>
       <c r="O16">
-        <v>4.73740176964759</v>
+        <v>2.518536192885506</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2030466744921569</v>
+        <v>0.1973434088423289</v>
       </c>
       <c r="D17">
-        <v>0.1537941161005563</v>
+        <v>0.1549643359685291</v>
       </c>
       <c r="E17">
-        <v>0.1564201040349928</v>
+        <v>0.1115066987682667</v>
       </c>
       <c r="F17">
-        <v>1.849788471397531</v>
+        <v>1.046533335368323</v>
       </c>
       <c r="G17">
-        <v>0.002489126324611147</v>
+        <v>0.0007968806339614541</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.299056835659528</v>
+        <v>0.7292667429133886</v>
       </c>
       <c r="J17">
-        <v>0.1969895560843682</v>
+        <v>0.1107277760764305</v>
       </c>
       <c r="K17">
-        <v>2.087206336211977</v>
+        <v>4.789462387482445</v>
       </c>
       <c r="L17">
-        <v>0.2169003332242312</v>
+        <v>0.1270375627112657</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.389997818454859</v>
+        <v>0.9922824502801149</v>
       </c>
       <c r="O17">
-        <v>4.741828014339717</v>
+        <v>2.471900511127814</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2021037888764852</v>
+        <v>0.1932425519926539</v>
       </c>
       <c r="D18">
-        <v>0.1529818559019276</v>
+        <v>0.151668288506869</v>
       </c>
       <c r="E18">
-        <v>0.1560682156769708</v>
+        <v>0.1095675240291456</v>
       </c>
       <c r="F18">
-        <v>1.849823454079853</v>
+        <v>1.03343503773165</v>
       </c>
       <c r="G18">
-        <v>0.002489808186074482</v>
+        <v>0.0007979692803425827</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.299187157381652</v>
+        <v>0.7202864850013881</v>
       </c>
       <c r="J18">
-        <v>0.1968634945270082</v>
+        <v>0.1092452887697135</v>
       </c>
       <c r="K18">
-        <v>2.052457417076596</v>
+        <v>4.670716427928994</v>
       </c>
       <c r="L18">
-        <v>0.2166698965451843</v>
+        <v>0.1252089021501916</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.390151090679495</v>
+        <v>0.9903687319780374</v>
       </c>
       <c r="O18">
-        <v>4.744630518418205</v>
+        <v>2.445753189791674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2017856727439522</v>
+        <v>0.1918567717003015</v>
       </c>
       <c r="D19">
-        <v>0.1527075439856134</v>
+        <v>0.1505539059991747</v>
       </c>
       <c r="E19">
-        <v>0.155949988439005</v>
+        <v>0.1089129384543028</v>
       </c>
       <c r="F19">
-        <v>1.849851546682444</v>
+        <v>1.029041110998904</v>
       </c>
       <c r="G19">
-        <v>0.002490040690375236</v>
+        <v>0.000798339185741735</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.299242867916881</v>
+        <v>0.717275352902881</v>
       </c>
       <c r="J19">
-        <v>0.1968221023713923</v>
+        <v>0.1087461511193695</v>
       </c>
       <c r="K19">
-        <v>2.040694766216518</v>
+        <v>4.630538722719223</v>
       </c>
       <c r="L19">
-        <v>0.2165931591651571</v>
+        <v>0.1245924085251247</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.390211291984201</v>
+        <v>0.9897423204286895</v>
       </c>
       <c r="O19">
-        <v>4.7456234672226</v>
+        <v>2.437013669244095</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2032217169418686</v>
+        <v>0.1981036854869842</v>
       </c>
       <c r="D20">
-        <v>0.1539447817073381</v>
+        <v>0.1555751327796031</v>
       </c>
       <c r="E20">
-        <v>0.1564856654987601</v>
+        <v>0.1118665510226329</v>
       </c>
       <c r="F20">
-        <v>1.849789714709274</v>
+        <v>1.048977203787956</v>
       </c>
       <c r="G20">
-        <v>0.002489000905055993</v>
+        <v>0.0007966797673810141</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.299038219435054</v>
+        <v>0.7309429279499895</v>
       </c>
       <c r="J20">
-        <v>0.197013499840935</v>
+        <v>0.1110034993862712</v>
       </c>
       <c r="K20">
-        <v>2.093638862734281</v>
+        <v>4.811453077888132</v>
       </c>
       <c r="L20">
-        <v>0.2169435917018632</v>
+        <v>0.1273772839009055</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.389973394596367</v>
+        <v>0.9926469531716435</v>
       </c>
       <c r="O20">
-        <v>4.741330268832883</v>
+        <v>2.476794333633052</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2081247564274378</v>
+        <v>0.2192913548746418</v>
       </c>
       <c r="D21">
-        <v>0.1581504463494809</v>
+        <v>0.1725642193757437</v>
       </c>
       <c r="E21">
-        <v>0.1583490023607759</v>
+        <v>0.1219354599475437</v>
       </c>
       <c r="F21">
-        <v>1.850712281190312</v>
+        <v>1.118946585062488</v>
       </c>
       <c r="G21">
-        <v>0.0024856210104626</v>
+        <v>0.0007911928586654682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.299156690492083</v>
+        <v>0.7790118226803102</v>
       </c>
       <c r="J21">
-        <v>0.197746188235044</v>
+        <v>0.1187923514133331</v>
       </c>
       <c r="K21">
-        <v>2.271703440832141</v>
+        <v>5.421442312738748</v>
       </c>
       <c r="L21">
-        <v>0.2182101604092921</v>
+        <v>0.1369277388392334</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.389750741930939</v>
+        <v>1.003957119758596</v>
       </c>
       <c r="O21">
-        <v>4.729972802185387</v>
+        <v>2.618733642330483</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2113869445672663</v>
+        <v>0.233300630286692</v>
       </c>
       <c r="D22">
-        <v>0.1609349793854449</v>
+        <v>0.1837644388736948</v>
       </c>
       <c r="E22">
-        <v>0.1596139266521028</v>
+        <v>0.128632937163097</v>
       </c>
       <c r="F22">
-        <v>1.852157694874137</v>
+        <v>1.167073173787429</v>
       </c>
       <c r="G22">
-        <v>0.002483496405161128</v>
+        <v>0.0007876697407950803</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.299835000491676</v>
+        <v>0.81215190920053</v>
       </c>
       <c r="J22">
-        <v>0.1982916866974662</v>
+        <v>0.1240465284620171</v>
       </c>
       <c r="K22">
-        <v>2.388200316929044</v>
+        <v>5.821973089924995</v>
       </c>
       <c r="L22">
-        <v>0.2191041632678647</v>
+        <v>0.1433244931514395</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.390033676878076</v>
+        <v>1.012569449504809</v>
       </c>
       <c r="O22">
-        <v>4.724837680559745</v>
+        <v>2.718145378643044</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2096405971395399</v>
+        <v>0.2258078900917155</v>
       </c>
       <c r="D23">
-        <v>0.1594455648863118</v>
+        <v>0.1777772344419049</v>
       </c>
       <c r="E23">
-        <v>0.1589345153376591</v>
+        <v>0.1250470968746313</v>
       </c>
       <c r="F23">
-        <v>1.851309163327215</v>
+        <v>1.141156302625291</v>
       </c>
       <c r="G23">
-        <v>0.002484622650968411</v>
+        <v>0.0007895445445825194</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.299417985619087</v>
+        <v>0.7942984105763529</v>
       </c>
       <c r="J23">
-        <v>0.197994455569571</v>
+        <v>0.1212265406240647</v>
       </c>
       <c r="K23">
-        <v>2.326013438446012</v>
+        <v>5.608013221685042</v>
       </c>
       <c r="L23">
-        <v>0.2186209719425563</v>
+        <v>0.139895534158633</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.389843550359515</v>
+        <v>1.007856918451409</v>
       </c>
       <c r="O23">
-        <v>4.727368963612776</v>
+        <v>2.664447747254712</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2031425611609734</v>
+        <v>0.1977599200768481</v>
       </c>
       <c r="D24">
-        <v>0.1538766541831507</v>
+        <v>0.1552989663928628</v>
       </c>
       <c r="E24">
-        <v>0.156456009071249</v>
+        <v>0.1117038278047993</v>
       </c>
       <c r="F24">
-        <v>1.84978885800615</v>
+        <v>1.047871592468866</v>
       </c>
       <c r="G24">
-        <v>0.0024890575766401</v>
+        <v>0.000796770554153929</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.299046425604026</v>
+        <v>0.7301845931566291</v>
       </c>
       <c r="J24">
-        <v>0.1970026516735146</v>
+        <v>0.1108787951008878</v>
       </c>
       <c r="K24">
-        <v>2.090730718025213</v>
+        <v>4.801510729788106</v>
       </c>
       <c r="L24">
-        <v>0.2169240116048243</v>
+        <v>0.1272236493967398</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.38998428595913</v>
+        <v>0.9924817680295632</v>
       </c>
       <c r="O24">
-        <v>4.74155449656692</v>
+        <v>2.474579774527569</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1963843604388842</v>
+        <v>0.1681144440289728</v>
       </c>
       <c r="D25">
-        <v>0.1480264645415161</v>
+        <v>0.1314142046319375</v>
       </c>
       <c r="E25">
-        <v>0.1539863326862623</v>
+        <v>0.09775799601382218</v>
       </c>
       <c r="F25">
-        <v>1.851765743500238</v>
+        <v>0.9564604861235892</v>
       </c>
       <c r="G25">
-        <v>0.002494205785170451</v>
+        <v>0.0008048544609845891</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.301224671566111</v>
+        <v>0.6676505451372563</v>
       </c>
       <c r="J25">
-        <v>0.1962199249687089</v>
+        <v>0.1003485390386487</v>
       </c>
       <c r="K25">
-        <v>1.837541695693687</v>
+        <v>3.937877207918518</v>
       </c>
       <c r="L25">
-        <v>0.215379368589474</v>
+        <v>0.1141531600130747</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.391984300616841</v>
+        <v>0.9807298372251125</v>
       </c>
       <c r="O25">
-        <v>4.766666498949576</v>
+        <v>2.295321589060677</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1467177931697137</v>
+        <v>0.06181588235229185</v>
       </c>
       <c r="D2">
-        <v>0.1140802233478553</v>
+        <v>0.006444911672891962</v>
       </c>
       <c r="E2">
-        <v>0.08781646702306389</v>
+        <v>1.464358828670996</v>
       </c>
       <c r="F2">
-        <v>0.8959652683484833</v>
+        <v>1.112076911831579</v>
       </c>
       <c r="G2">
-        <v>0.0008110765853235443</v>
+        <v>1.083988655820576</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02417382395094858</v>
       </c>
       <c r="I2">
-        <v>0.6265023494018678</v>
+        <v>0.05650471754004061</v>
       </c>
       <c r="J2">
-        <v>0.09306419224452611</v>
+        <v>0.600840057437722</v>
       </c>
       <c r="K2">
-        <v>3.305562509967217</v>
+        <v>0.8527539415558749</v>
       </c>
       <c r="L2">
-        <v>0.1049736411880673</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9758174946583296</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.182246692633242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>7.66312166460591</v>
+      </c>
+      <c r="Q2">
+        <v>3.507883495005444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.132444235261417</v>
+        <v>0.05707837909309887</v>
       </c>
       <c r="D3">
-        <v>0.1024636786064832</v>
+        <v>0.005754067376791738</v>
       </c>
       <c r="E3">
-        <v>0.08125664106857045</v>
+        <v>1.282137691871554</v>
       </c>
       <c r="F3">
-        <v>0.8587095521075554</v>
+        <v>0.9788459119366024</v>
       </c>
       <c r="G3">
-        <v>0.0008154714541491439</v>
+        <v>0.9494211360583336</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01914266148885257</v>
       </c>
       <c r="I3">
-        <v>0.6013052845593236</v>
+        <v>0.0482574678916361</v>
       </c>
       <c r="J3">
-        <v>0.08838652812003289</v>
+        <v>0.5394395948706148</v>
       </c>
       <c r="K3">
-        <v>2.878441960453927</v>
+        <v>0.7549348421572688</v>
       </c>
       <c r="L3">
-        <v>0.09899786643546094</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.974633150669618</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.116021474084846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>3.093802162419905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1237796588421674</v>
+        <v>0.0540917642607468</v>
       </c>
       <c r="D4">
-        <v>0.09538768958935151</v>
+        <v>0.005331563223281321</v>
       </c>
       <c r="E4">
-        <v>0.07730858741127378</v>
+        <v>1.170508351065052</v>
       </c>
       <c r="F4">
-        <v>0.8375258867230357</v>
+        <v>0.8973375972716866</v>
       </c>
       <c r="G4">
-        <v>0.0008182607282873673</v>
+        <v>0.8669605940337561</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01625074884237265</v>
       </c>
       <c r="I4">
-        <v>0.5870495113609877</v>
+        <v>0.04337012381919747</v>
       </c>
       <c r="J4">
-        <v>0.08563197837295178</v>
+        <v>0.5018811178481712</v>
       </c>
       <c r="K4">
-        <v>2.616637492451503</v>
+        <v>0.6948225501188645</v>
       </c>
       <c r="L4">
-        <v>0.09544004670112827</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9749066390293066</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.080067085360582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>2.840189077865944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1202720806009694</v>
+        <v>0.05265970517196195</v>
       </c>
       <c r="D5">
-        <v>0.09251734887187268</v>
+        <v>0.00517059885760851</v>
       </c>
       <c r="E5">
-        <v>0.0757186870006592</v>
+        <v>1.125022408482877</v>
       </c>
       <c r="F5">
-        <v>0.8292971700967158</v>
+        <v>0.8634409199552806</v>
       </c>
       <c r="G5">
-        <v>0.0008194206244535826</v>
+        <v>0.8325286546352828</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01511303317175561</v>
       </c>
       <c r="I5">
-        <v>0.5815302513027589</v>
+        <v>0.04143159212378489</v>
       </c>
       <c r="J5">
-        <v>0.08453762880796134</v>
+        <v>0.4861787812983067</v>
       </c>
       <c r="K5">
-        <v>2.51003109188855</v>
+        <v>0.6693270982656117</v>
       </c>
       <c r="L5">
-        <v>0.09401687667070746</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9752617660082521</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.06653986997614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>2.734249308919374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1196910096793999</v>
+        <v>0.05218451279965919</v>
       </c>
       <c r="D6">
-        <v>0.09204149750065227</v>
+        <v>0.005157308334061028</v>
       </c>
       <c r="E6">
-        <v>0.0754558001397605</v>
+        <v>1.117425869550232</v>
       </c>
       <c r="F6">
-        <v>0.8279545770504555</v>
+        <v>0.8569098609017516</v>
       </c>
       <c r="G6">
-        <v>0.0008196146399170281</v>
+        <v>0.8257663945573341</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01492176895522113</v>
       </c>
       <c r="I6">
-        <v>0.5806308636311783</v>
+        <v>0.04113713202398284</v>
       </c>
       <c r="J6">
-        <v>0.0843575734173676</v>
+        <v>0.4830520654157908</v>
       </c>
       <c r="K6">
-        <v>2.492333181863387</v>
+        <v>0.6638957764694311</v>
       </c>
       <c r="L6">
-        <v>0.09378213380323075</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9753352284944583</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.06435992177353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>2.713355519076003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1237322622247774</v>
+        <v>0.05342250727019149</v>
       </c>
       <c r="D7">
-        <v>0.09534892714560073</v>
+        <v>0.005366084346421829</v>
       </c>
       <c r="E7">
-        <v>0.07728707006022262</v>
+        <v>1.169769179520458</v>
       </c>
       <c r="F7">
-        <v>0.837413304086752</v>
+        <v>0.8943980188919198</v>
       </c>
       <c r="G7">
-        <v>0.0008182762764203807</v>
+        <v>0.8636286213915696</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01622126196553353</v>
       </c>
       <c r="I7">
-        <v>0.5869739220972718</v>
+        <v>0.04339818265533246</v>
       </c>
       <c r="J7">
-        <v>0.08561710741387074</v>
+        <v>0.500242246047307</v>
       </c>
       <c r="K7">
-        <v>2.615199473795201</v>
+        <v>0.6911998072706496</v>
       </c>
       <c r="L7">
-        <v>0.0954207470442725</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9749104519172178</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.079880175932715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>2.829693361979309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1417745742405003</v>
+        <v>0.05932738095814827</v>
       </c>
       <c r="D8">
-        <v>0.110062430843314</v>
+        <v>0.006255402388516629</v>
       </c>
       <c r="E8">
-        <v>0.08553742648464535</v>
+        <v>1.401288560139562</v>
       </c>
       <c r="F8">
-        <v>0.8827551114766266</v>
+        <v>1.062746263797834</v>
       </c>
       <c r="G8">
-        <v>0.000812573342124184</v>
+        <v>1.033707859262108</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.02237416939252723</v>
       </c>
       <c r="I8">
-        <v>0.6175525664865589</v>
+        <v>0.05366676441082685</v>
       </c>
       <c r="J8">
-        <v>0.09142606288155974</v>
+        <v>0.5777291836174214</v>
       </c>
       <c r="K8">
-        <v>3.158178103498358</v>
+        <v>0.8146463874263787</v>
       </c>
       <c r="L8">
-        <v>0.1028892664796288</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9751965084842737</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.158398337769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>3.352819727312919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1780277208233088</v>
+        <v>0.0715078067638899</v>
       </c>
       <c r="D9">
-        <v>0.139416911218504</v>
+        <v>0.007951040026181744</v>
       </c>
       <c r="E9">
-        <v>0.1024012471593174</v>
+        <v>1.858669907359115</v>
       </c>
       <c r="F9">
-        <v>0.9861236933875972</v>
+        <v>1.400500160406096</v>
       </c>
       <c r="G9">
-        <v>0.0008020907898579606</v>
+        <v>1.374483174233859</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.03626200532751023</v>
       </c>
       <c r="I9">
-        <v>0.6879037766527247</v>
+        <v>0.07543769217714669</v>
       </c>
       <c r="J9">
-        <v>0.103818103033845</v>
+        <v>0.7337262190306149</v>
       </c>
       <c r="K9">
-        <v>4.22812152588034</v>
+        <v>1.062681733690638</v>
       </c>
       <c r="L9">
-        <v>0.1184825032244134</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9840809564556139</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.352572377131395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>4.402424297038579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2053202895840371</v>
+        <v>0.079958091487633</v>
       </c>
       <c r="D10">
-        <v>0.1613687067077052</v>
+        <v>0.009472034755090064</v>
       </c>
       <c r="E10">
-        <v>0.1152874466854321</v>
+        <v>2.092389768856052</v>
       </c>
       <c r="F10">
-        <v>1.072410833946833</v>
+        <v>1.636590575698364</v>
       </c>
       <c r="G10">
-        <v>0.0007947875009933694</v>
+        <v>1.609705390774451</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04681263079355258</v>
       </c>
       <c r="I10">
-        <v>0.7470253980079917</v>
+        <v>0.09236367039339477</v>
       </c>
       <c r="J10">
-        <v>0.1136340251372019</v>
+        <v>0.8412195350568084</v>
       </c>
       <c r="K10">
-        <v>5.019825183502064</v>
+        <v>1.23314762834147</v>
       </c>
       <c r="L10">
-        <v>0.1306125172004897</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9962538618232202</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.523951335106887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>5.126507160520759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.217909278824834</v>
+        <v>0.08415140382417263</v>
       </c>
       <c r="D11">
-        <v>0.1714578878630419</v>
+        <v>0.01272457887782963</v>
       </c>
       <c r="E11">
-        <v>0.1212763825030194</v>
+        <v>1.381174063114969</v>
       </c>
       <c r="F11">
-        <v>1.114276589292615</v>
+        <v>1.620523327674448</v>
       </c>
       <c r="G11">
-        <v>0.0007915446714064549</v>
+        <v>1.574048527770856</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06092380588311741</v>
       </c>
       <c r="I11">
-        <v>0.775799166557043</v>
+        <v>0.09620916764364562</v>
       </c>
       <c r="J11">
-        <v>0.1182783447254252</v>
+        <v>0.8205994500224278</v>
       </c>
       <c r="K11">
-        <v>5.381812829845728</v>
+        <v>1.212510940334084</v>
       </c>
       <c r="L11">
-        <v>0.1363000773200298</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.003154478338033</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.609158926587867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>5.007897920879998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2227040015409187</v>
+        <v>0.0876567929559755</v>
       </c>
       <c r="D12">
-        <v>0.1752949151395171</v>
+        <v>0.01559159484526518</v>
       </c>
       <c r="E12">
-        <v>0.1235641650051527</v>
+        <v>0.8667430078577638</v>
       </c>
       <c r="F12">
-        <v>1.13053866811552</v>
+        <v>1.560917132010488</v>
       </c>
       <c r="G12">
-        <v>0.0007903275242953124</v>
+        <v>1.499569700617542</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09555257587206967</v>
       </c>
       <c r="I12">
-        <v>0.7869888970845764</v>
+        <v>0.09604537653796541</v>
       </c>
       <c r="J12">
-        <v>0.1200649425606599</v>
+        <v>0.7827454963714615</v>
       </c>
       <c r="K12">
-        <v>5.519205446959518</v>
+        <v>1.164443721111553</v>
       </c>
       <c r="L12">
-        <v>0.1384802410490806</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.005975892004074</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.642557399390824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>4.770821349218409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2216701035799673</v>
+        <v>0.08978628147655598</v>
       </c>
       <c r="D13">
-        <v>0.174467782649856</v>
+        <v>0.01832807070656628</v>
       </c>
       <c r="E13">
-        <v>0.1230705373562166</v>
+        <v>0.4739486458368987</v>
       </c>
       <c r="F13">
-        <v>1.127017627859644</v>
+        <v>1.460814777942261</v>
       </c>
       <c r="G13">
-        <v>0.000790589186227636</v>
+        <v>1.386929829150944</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1471807579784183</v>
       </c>
       <c r="I13">
-        <v>0.7845655313199273</v>
+        <v>0.09288729349804559</v>
       </c>
       <c r="J13">
-        <v>0.1196788900725707</v>
+        <v>0.7274141662697957</v>
       </c>
       <c r="K13">
-        <v>5.48960057856948</v>
+        <v>1.087616093214308</v>
       </c>
       <c r="L13">
-        <v>0.1380094953631854</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.005358780727292</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.635312577046619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>4.416192789497643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2183031758889911</v>
+        <v>0.09047753601559094</v>
       </c>
       <c r="D14">
-        <v>0.1717732224522308</v>
+        <v>0.02024188600027088</v>
       </c>
       <c r="E14">
-        <v>0.1214641909844509</v>
+        <v>0.2728590980779373</v>
       </c>
       <c r="F14">
-        <v>1.115606099233204</v>
+        <v>1.372492968955129</v>
       </c>
       <c r="G14">
-        <v>0.0007914443222237671</v>
+        <v>1.290999964352551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.193762991880277</v>
       </c>
       <c r="I14">
-        <v>0.7767137246542148</v>
+        <v>0.08945997478801093</v>
       </c>
       <c r="J14">
-        <v>0.1184247572316508</v>
+        <v>0.6807952798152996</v>
       </c>
       <c r="K14">
-        <v>5.393109564462918</v>
+        <v>1.020485211530058</v>
       </c>
       <c r="L14">
-        <v>0.1364788992905872</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.003382349551174</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.611883407299814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>4.115200147283986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2162445032807057</v>
+        <v>0.08992253589993737</v>
       </c>
       <c r="D15">
-        <v>0.1701249224568926</v>
+        <v>0.0206424726465535</v>
       </c>
       <c r="E15">
-        <v>0.1204829003860191</v>
+        <v>0.2328781390494186</v>
       </c>
       <c r="F15">
-        <v>1.108670407560069</v>
+        <v>1.341648080386122</v>
       </c>
       <c r="G15">
-        <v>0.000791969511544699</v>
+        <v>1.25860665400711</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2053413987985238</v>
       </c>
       <c r="I15">
-        <v>0.7719432465800793</v>
+        <v>0.08800222139102054</v>
       </c>
       <c r="J15">
-        <v>0.1176602640847904</v>
+        <v>0.6653110686510217</v>
       </c>
       <c r="K15">
-        <v>5.334048755119966</v>
+        <v>0.9969477700703209</v>
       </c>
       <c r="L15">
-        <v>0.1355448668674271</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.002199234998926</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.597682602551231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>4.014088519108157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2045012780769753</v>
+        <v>0.08539196058920595</v>
       </c>
       <c r="D16">
-        <v>0.1607115684349623</v>
+        <v>0.01933896492338505</v>
       </c>
       <c r="E16">
-        <v>0.1148987481471124</v>
+        <v>0.2277060750688484</v>
       </c>
       <c r="F16">
-        <v>1.069730130079137</v>
+        <v>1.261518257990645</v>
       </c>
       <c r="G16">
-        <v>0.0007950009774989437</v>
+        <v>1.181882717583562</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1892391067326997</v>
       </c>
       <c r="I16">
-        <v>0.7451847473967064</v>
+        <v>0.08153447467275132</v>
       </c>
       <c r="J16">
-        <v>0.113334290462781</v>
+        <v>0.6308761658279138</v>
       </c>
       <c r="K16">
-        <v>4.996209722266656</v>
+        <v>0.9394343207735147</v>
       </c>
       <c r="L16">
-        <v>0.1302444034393559</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9958313498285207</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.518536192885506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>3.779183616130354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1973434088423289</v>
+        <v>0.08149667158595264</v>
       </c>
       <c r="D17">
-        <v>0.1549643359685291</v>
+        <v>0.01730433841777312</v>
       </c>
       <c r="E17">
-        <v>0.1115066987682667</v>
+        <v>0.3165325497434068</v>
       </c>
       <c r="F17">
-        <v>1.046533335368323</v>
+        <v>1.246524805171703</v>
       </c>
       <c r="G17">
-        <v>0.0007968806339614541</v>
+        <v>1.173315032796211</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1502430821052769</v>
       </c>
       <c r="I17">
-        <v>0.7292667429133886</v>
+        <v>0.07837146595181643</v>
       </c>
       <c r="J17">
-        <v>0.1107277760764305</v>
+        <v>0.6289680838805509</v>
       </c>
       <c r="K17">
-        <v>4.789462387482445</v>
+        <v>0.9305170396453093</v>
       </c>
       <c r="L17">
-        <v>0.1270375627112657</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9922824502801149</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.471900511127814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>3.756914314636049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1932425519926539</v>
+        <v>0.07864895891423629</v>
       </c>
       <c r="D18">
-        <v>0.151668288506869</v>
+        <v>0.0145616960727466</v>
       </c>
       <c r="E18">
-        <v>0.1095675240291456</v>
+        <v>0.5609505938124428</v>
       </c>
       <c r="F18">
-        <v>1.03343503773165</v>
+        <v>1.287963538214001</v>
       </c>
       <c r="G18">
-        <v>0.0007979692803425827</v>
+        <v>1.22525727860986</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09854612112691541</v>
       </c>
       <c r="I18">
-        <v>0.7202864850013881</v>
+        <v>0.07764579696534035</v>
       </c>
       <c r="J18">
-        <v>0.1092452887697135</v>
+        <v>0.6560678672090887</v>
       </c>
       <c r="K18">
-        <v>4.670716427928994</v>
+        <v>0.9652082705737683</v>
       </c>
       <c r="L18">
-        <v>0.1252089021501916</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9903687319780374</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.445753189791674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>3.923692986518972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1918567717003015</v>
+        <v>0.07581091369414139</v>
       </c>
       <c r="D19">
-        <v>0.1505539059991747</v>
+        <v>0.0119054908555718</v>
       </c>
       <c r="E19">
-        <v>0.1089129384543028</v>
+        <v>1.012642525252986</v>
       </c>
       <c r="F19">
-        <v>1.029041110998904</v>
+        <v>1.368491202284176</v>
       </c>
       <c r="G19">
-        <v>0.000798339185741735</v>
+        <v>1.318970649120018</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05730105155353016</v>
       </c>
       <c r="I19">
-        <v>0.717275352902881</v>
+        <v>0.07941194631092419</v>
       </c>
       <c r="J19">
-        <v>0.1087461511193695</v>
+        <v>0.7027001850121337</v>
       </c>
       <c r="K19">
-        <v>4.630538722719223</v>
+        <v>1.027577141586193</v>
       </c>
       <c r="L19">
-        <v>0.1245924085251247</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9897423204286895</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.437013669244095</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>4.2199651094258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1981036854869842</v>
+        <v>0.07570528322095527</v>
       </c>
       <c r="D20">
-        <v>0.1555751327796031</v>
+        <v>0.009204043376364268</v>
       </c>
       <c r="E20">
-        <v>0.1118665510226329</v>
+        <v>2.025986799777911</v>
       </c>
       <c r="F20">
-        <v>1.048977203787956</v>
+        <v>1.56580292635374</v>
       </c>
       <c r="G20">
-        <v>0.0007966797673810141</v>
+        <v>1.537867739669878</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.04381470660886411</v>
       </c>
       <c r="I20">
-        <v>0.7309429279499895</v>
+        <v>0.08797991359471169</v>
       </c>
       <c r="J20">
-        <v>0.1110034993862712</v>
+        <v>0.8079985536343202</v>
       </c>
       <c r="K20">
-        <v>4.811453077888132</v>
+        <v>1.177368041835251</v>
       </c>
       <c r="L20">
-        <v>0.1273772839009055</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9926469531716435</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.476794333633052</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>4.904570173120305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2192913548746418</v>
+        <v>0.08235705775353352</v>
       </c>
       <c r="D21">
-        <v>0.1725642193757437</v>
+        <v>0.009983718662173402</v>
       </c>
       <c r="E21">
-        <v>0.1219354599475437</v>
+        <v>2.370499516625699</v>
       </c>
       <c r="F21">
-        <v>1.118946585062488</v>
+        <v>1.771281479788826</v>
       </c>
       <c r="G21">
-        <v>0.0007911928586654682</v>
+        <v>1.74607634809766</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.05413038889454924</v>
       </c>
       <c r="I21">
-        <v>0.7790118226803102</v>
+        <v>0.1022885696665057</v>
       </c>
       <c r="J21">
-        <v>0.1187923514133331</v>
+        <v>0.904042556140439</v>
       </c>
       <c r="K21">
-        <v>5.421442312738748</v>
+        <v>1.327286796933095</v>
       </c>
       <c r="L21">
-        <v>0.1369277388392334</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.003957119758596</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.618733642330483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>5.547316425414976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.233300630286692</v>
+        <v>0.08757884558426099</v>
       </c>
       <c r="D22">
-        <v>0.1837644388736948</v>
+        <v>0.01057031496257821</v>
       </c>
       <c r="E22">
-        <v>0.128632937163097</v>
+        <v>2.543284229145755</v>
       </c>
       <c r="F22">
-        <v>1.167073173787429</v>
+        <v>1.902888159021913</v>
       </c>
       <c r="G22">
-        <v>0.0007876697407950803</v>
+        <v>1.878745654519662</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06072640051358302</v>
       </c>
       <c r="I22">
-        <v>0.81215190920053</v>
+        <v>0.1117087110366333</v>
       </c>
       <c r="J22">
-        <v>0.1240465284620171</v>
+        <v>0.965222808316696</v>
       </c>
       <c r="K22">
-        <v>5.821973089924995</v>
+        <v>1.424603971878668</v>
       </c>
       <c r="L22">
-        <v>0.1433244931514395</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.012569449504809</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.718145378643044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>5.956825053853038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2258078900917155</v>
+        <v>0.08556869056152294</v>
       </c>
       <c r="D23">
-        <v>0.1777772344419049</v>
+        <v>0.01021046354227195</v>
       </c>
       <c r="E23">
-        <v>0.1250470968746313</v>
+        <v>2.451128574751706</v>
       </c>
       <c r="F23">
-        <v>1.141156302625291</v>
+        <v>1.835613354265647</v>
       </c>
       <c r="G23">
-        <v>0.0007895445445825194</v>
+        <v>1.811393575130154</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05719717953784897</v>
       </c>
       <c r="I23">
-        <v>0.7942984105763529</v>
+        <v>0.1065703264042179</v>
       </c>
       <c r="J23">
-        <v>0.1212265406240647</v>
+        <v>0.9342754307453447</v>
       </c>
       <c r="K23">
-        <v>5.608013221685042</v>
+        <v>1.376651618281159</v>
       </c>
       <c r="L23">
-        <v>0.139895534158633</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.007856918451409</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.664447747254712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>5.749159976962972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1977599200768481</v>
+        <v>0.07668380781068151</v>
       </c>
       <c r="D24">
-        <v>0.1552989663928628</v>
+        <v>0.008930085994213854</v>
       </c>
       <c r="E24">
-        <v>0.1117038278047993</v>
+        <v>2.104268661667476</v>
       </c>
       <c r="F24">
-        <v>1.047871592468866</v>
+        <v>1.578015779086087</v>
       </c>
       <c r="G24">
-        <v>0.000796770554153929</v>
+        <v>1.552479128074452</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0445394416799747</v>
       </c>
       <c r="I24">
-        <v>0.7301845931566291</v>
+        <v>0.08800667467962686</v>
       </c>
       <c r="J24">
-        <v>0.1108787951008878</v>
+        <v>0.8152328716831221</v>
       </c>
       <c r="K24">
-        <v>4.801510729788106</v>
+        <v>1.18949001462579</v>
       </c>
       <c r="L24">
-        <v>0.1272236493967398</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9924817680295632</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.474579774527569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>4.950687592157465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1681144440289728</v>
+        <v>0.06708236170027604</v>
       </c>
       <c r="D25">
-        <v>0.1314142046319375</v>
+        <v>0.007558406983486421</v>
       </c>
       <c r="E25">
-        <v>0.09775799601382218</v>
+        <v>1.734183599524442</v>
       </c>
       <c r="F25">
-        <v>0.9564604861235892</v>
+        <v>1.304079724351126</v>
       </c>
       <c r="G25">
-        <v>0.0008048544609845891</v>
+        <v>1.276648154575724</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03224630971893649</v>
       </c>
       <c r="I25">
-        <v>0.6676505451372563</v>
+        <v>0.06941397604049726</v>
       </c>
       <c r="J25">
-        <v>0.1003485390386487</v>
+        <v>0.6886830551774779</v>
       </c>
       <c r="K25">
-        <v>3.937877207918518</v>
+        <v>0.9894555656664181</v>
       </c>
       <c r="L25">
-        <v>0.1141531600130747</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9807298372251125</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.295321589060677</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
+        <v>4.100568812889207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06181588235229185</v>
+        <v>0.0495490611447309</v>
       </c>
       <c r="D2">
-        <v>0.006444911672891962</v>
+        <v>0.01004016628101745</v>
       </c>
       <c r="E2">
-        <v>1.464358828670996</v>
+        <v>1.44452983632813</v>
       </c>
       <c r="F2">
-        <v>1.112076911831579</v>
+        <v>0.9859277440716454</v>
       </c>
       <c r="G2">
-        <v>1.083988655820576</v>
+        <v>0.9256646499582644</v>
       </c>
       <c r="H2">
-        <v>0.02417382395094858</v>
+        <v>0.02173586852070408</v>
       </c>
       <c r="I2">
-        <v>0.05650471754004061</v>
+        <v>0.04528933797227364</v>
       </c>
       <c r="J2">
-        <v>0.600840057437722</v>
+        <v>0.5871479188797792</v>
       </c>
       <c r="K2">
-        <v>0.8527539415558749</v>
+        <v>0.6935347263249838</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3385941680235192</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2225229715987993</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,13 +475,19 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.507883495005444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>3.055475156756984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05707837909309887</v>
+        <v>0.04594835951519372</v>
       </c>
       <c r="D3">
-        <v>0.005754067376791738</v>
+        <v>0.008780010058105248</v>
       </c>
       <c r="E3">
-        <v>1.282137691871554</v>
+        <v>1.265424018781516</v>
       </c>
       <c r="F3">
-        <v>0.9788459119366024</v>
+        <v>0.8737724411806909</v>
       </c>
       <c r="G3">
-        <v>0.9494211360583336</v>
+        <v>0.8136962294232291</v>
       </c>
       <c r="H3">
-        <v>0.01914266148885257</v>
+        <v>0.0172124306840209</v>
       </c>
       <c r="I3">
-        <v>0.0482574678916361</v>
+        <v>0.03906476266749914</v>
       </c>
       <c r="J3">
-        <v>0.5394395948706148</v>
+        <v>0.5362985677128052</v>
       </c>
       <c r="K3">
-        <v>0.7549348421572688</v>
+        <v>0.6216141521768321</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3246856465622727</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.181970901904613</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,13 +534,19 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>3.093802162419905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>2.716886669629133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0540917642607468</v>
+        <v>0.04376454269807661</v>
       </c>
       <c r="D4">
-        <v>0.005331563223281321</v>
+        <v>0.008016615058465959</v>
       </c>
       <c r="E4">
-        <v>1.170508351065052</v>
+        <v>1.155625601686992</v>
       </c>
       <c r="F4">
-        <v>0.8973375972716866</v>
+        <v>0.804956096308814</v>
       </c>
       <c r="G4">
-        <v>0.8669605940337561</v>
+        <v>0.7449653623435495</v>
       </c>
       <c r="H4">
-        <v>0.01625074884237265</v>
+        <v>0.01460997841760858</v>
       </c>
       <c r="I4">
-        <v>0.04337012381919747</v>
+        <v>0.03536489897583106</v>
       </c>
       <c r="J4">
-        <v>0.5018811178481712</v>
+        <v>0.5049329685141544</v>
       </c>
       <c r="K4">
-        <v>0.6948225501188645</v>
+        <v>0.577166738456711</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3156863800815799</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1578248110464244</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,13 +593,19 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>2.840189077865944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>2.508779617126663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05265970517196195</v>
+        <v>0.04286440040879613</v>
       </c>
       <c r="D5">
-        <v>0.00517059885760851</v>
+        <v>0.007724498790333101</v>
       </c>
       <c r="E5">
-        <v>1.125022408482877</v>
+        <v>1.110873764919546</v>
       </c>
       <c r="F5">
-        <v>0.8634409199552806</v>
+        <v>0.7762348419265521</v>
       </c>
       <c r="G5">
-        <v>0.8325286546352828</v>
+        <v>0.7161751654356294</v>
       </c>
       <c r="H5">
-        <v>0.01511303317175561</v>
+        <v>0.01358591794716235</v>
       </c>
       <c r="I5">
-        <v>0.04143159212378489</v>
+        <v>0.03391653072436362</v>
       </c>
       <c r="J5">
-        <v>0.4861787812983067</v>
+        <v>0.4917156307471942</v>
       </c>
       <c r="K5">
-        <v>0.6693270982656117</v>
+        <v>0.5581203856839494</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3115382315012667</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1478832796225902</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,13 +652,19 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>2.734249308919374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>2.421433232085207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05218451279965919</v>
+        <v>0.04269954002995391</v>
       </c>
       <c r="D6">
-        <v>0.005157308334061028</v>
+        <v>0.007696549884293802</v>
       </c>
       <c r="E6">
-        <v>1.117425869550232</v>
+        <v>1.103404652304789</v>
       </c>
       <c r="F6">
-        <v>0.8569098609017516</v>
+        <v>0.7706345812689932</v>
       </c>
       <c r="G6">
-        <v>0.8257663945573341</v>
+        <v>0.7104472239199424</v>
       </c>
       <c r="H6">
-        <v>0.01492176895522113</v>
+        <v>0.01341402795506419</v>
       </c>
       <c r="I6">
-        <v>0.04113713202398284</v>
+        <v>0.03372653057944053</v>
       </c>
       <c r="J6">
-        <v>0.4830520654157908</v>
+        <v>0.4890326075242513</v>
       </c>
       <c r="K6">
-        <v>0.6638957764694311</v>
+        <v>0.5539050914173913</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3103969766747383</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1458909855370862</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,13 +711,19 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>2.713355519076003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>2.403917267244736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05342250727019149</v>
+        <v>0.04370608294339196</v>
       </c>
       <c r="D7">
-        <v>0.005366084346421829</v>
+        <v>0.008102437159982046</v>
       </c>
       <c r="E7">
-        <v>1.169769179520458</v>
+        <v>1.154856351985458</v>
       </c>
       <c r="F7">
-        <v>0.8943980188919198</v>
+        <v>0.8009225482415729</v>
       </c>
       <c r="G7">
-        <v>0.8636286213915696</v>
+        <v>0.7471373002192507</v>
       </c>
       <c r="H7">
-        <v>0.01622126196553353</v>
+        <v>0.0145779273002582</v>
       </c>
       <c r="I7">
-        <v>0.04339818265533246</v>
+        <v>0.03544190972594219</v>
       </c>
       <c r="J7">
-        <v>0.500242246047307</v>
+        <v>0.4955628886235957</v>
       </c>
       <c r="K7">
-        <v>0.6911998072706496</v>
+        <v>0.5730719803668762</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3140235906199109</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1563745074633189</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,13 +770,19 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>2.829693361979309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>2.494410066891476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05932738095814827</v>
+        <v>0.04824743947027166</v>
       </c>
       <c r="D8">
-        <v>0.006255402388516629</v>
+        <v>0.009794710384053218</v>
       </c>
       <c r="E8">
-        <v>1.401288560139562</v>
+        <v>1.382385849426925</v>
       </c>
       <c r="F8">
-        <v>1.062746263797834</v>
+        <v>0.939625975079835</v>
       </c>
       <c r="G8">
-        <v>1.033707859262108</v>
+        <v>0.9008733270622002</v>
       </c>
       <c r="H8">
-        <v>0.02237416939252723</v>
+        <v>0.02009667676081417</v>
       </c>
       <c r="I8">
-        <v>0.05366676441082685</v>
+        <v>0.04317345519740812</v>
       </c>
       <c r="J8">
-        <v>0.5777291836174214</v>
+        <v>0.5418547823235826</v>
       </c>
       <c r="K8">
-        <v>0.8146463874263787</v>
+        <v>0.6617490398730936</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3310818513510085</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2058304906547903</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,13 +829,19 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>3.352819727312919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>2.91122683236253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0715078067638899</v>
+        <v>0.05751165777335654</v>
       </c>
       <c r="D9">
-        <v>0.007951040026181744</v>
+        <v>0.01297858972392874</v>
       </c>
       <c r="E9">
-        <v>1.858669907359115</v>
+        <v>1.831302290896858</v>
       </c>
       <c r="F9">
-        <v>1.400500160406096</v>
+        <v>1.221609287257735</v>
       </c>
       <c r="G9">
-        <v>1.374483174233859</v>
+        <v>1.1889940052356</v>
       </c>
       <c r="H9">
-        <v>0.03626200532751023</v>
+        <v>0.03254882843642593</v>
       </c>
       <c r="I9">
-        <v>0.07543769217714669</v>
+        <v>0.05941289585112486</v>
       </c>
       <c r="J9">
-        <v>0.7337262190306149</v>
+        <v>0.662136252983629</v>
       </c>
       <c r="K9">
-        <v>1.062681733690638</v>
+        <v>0.84225155062407</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3644249445538392</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3120497971492213</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,13 +888,19 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>4.402424297038579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>3.761233801029675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.079958091487633</v>
+        <v>0.06421503129503225</v>
       </c>
       <c r="D10">
-        <v>0.009472034755090064</v>
+        <v>0.01599734275910691</v>
       </c>
       <c r="E10">
-        <v>2.092389768856052</v>
+        <v>2.058624347833756</v>
       </c>
       <c r="F10">
-        <v>1.636590575698364</v>
+        <v>1.4089241468198</v>
       </c>
       <c r="G10">
-        <v>1.609705390774451</v>
+        <v>1.418112476670871</v>
       </c>
       <c r="H10">
-        <v>0.04681263079355258</v>
+        <v>0.04191272395293844</v>
       </c>
       <c r="I10">
-        <v>0.09236367039339477</v>
+        <v>0.07186936859953175</v>
       </c>
       <c r="J10">
-        <v>0.8412195350568084</v>
+        <v>0.6978774427656447</v>
       </c>
       <c r="K10">
-        <v>1.23314762834147</v>
+        <v>0.9585130466899727</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3812893864286266</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.387737309755515</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,13 +947,19 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>5.126507160520759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>4.311580100299636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08415140382417263</v>
+        <v>0.06449889875878378</v>
       </c>
       <c r="D11">
-        <v>0.01272457887782963</v>
+        <v>0.02152932168229782</v>
       </c>
       <c r="E11">
-        <v>1.381174063114969</v>
+        <v>1.351323549007205</v>
       </c>
       <c r="F11">
-        <v>1.620523327674448</v>
+        <v>1.37433989298475</v>
       </c>
       <c r="G11">
-        <v>1.574048527770856</v>
+        <v>1.45141016928298</v>
       </c>
       <c r="H11">
-        <v>0.06092380588311741</v>
+        <v>0.0561124605635186</v>
       </c>
       <c r="I11">
-        <v>0.09620916764364562</v>
+        <v>0.07464727866006804</v>
       </c>
       <c r="J11">
-        <v>0.8205994500224278</v>
+        <v>0.5872576830718259</v>
       </c>
       <c r="K11">
-        <v>1.212510940334084</v>
+        <v>0.9258173177429683</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3588522074765308</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3870716982120257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,13 +1006,19 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>5.007897920879998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>4.133208436767461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0876567929559755</v>
+        <v>0.06422201817356754</v>
       </c>
       <c r="D12">
-        <v>0.01559159484526518</v>
+        <v>0.02587289144041449</v>
       </c>
       <c r="E12">
-        <v>0.8667430078577638</v>
+        <v>0.8411091977564951</v>
       </c>
       <c r="F12">
-        <v>1.560917132010488</v>
+        <v>1.314527736520844</v>
       </c>
       <c r="G12">
-        <v>1.499569700617542</v>
+        <v>1.415221002864911</v>
       </c>
       <c r="H12">
-        <v>0.09555257587206967</v>
+        <v>0.09099336778020017</v>
       </c>
       <c r="I12">
-        <v>0.09604537653796541</v>
+        <v>0.07443865662113858</v>
       </c>
       <c r="J12">
-        <v>0.7827454963714615</v>
+        <v>0.519287725020888</v>
       </c>
       <c r="K12">
-        <v>1.164443721111553</v>
+        <v>0.8821399597276525</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3397209357127124</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3735591471284678</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,13 +1065,19 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>4.770821349218409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>3.900861226071129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08978628147655598</v>
+        <v>0.06354372001288855</v>
       </c>
       <c r="D13">
-        <v>0.01832807070656628</v>
+        <v>0.02929825253413654</v>
       </c>
       <c r="E13">
-        <v>0.4739486458368987</v>
+        <v>0.4527744743677999</v>
       </c>
       <c r="F13">
-        <v>1.460814777942261</v>
+        <v>1.231591134475053</v>
       </c>
       <c r="G13">
-        <v>1.386929829150944</v>
+        <v>1.306958858310111</v>
       </c>
       <c r="H13">
-        <v>0.1471807579784183</v>
+        <v>0.1430179724939507</v>
       </c>
       <c r="I13">
-        <v>0.09288729349804559</v>
+        <v>0.07217247340139998</v>
       </c>
       <c r="J13">
-        <v>0.7274141662697957</v>
+        <v>0.4886056512928434</v>
       </c>
       <c r="K13">
-        <v>1.087616093214308</v>
+        <v>0.8253000184037163</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3208071750047097</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3487799755417029</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,13 +1124,19 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>4.416192789497643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>3.612122361761465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09047753601559094</v>
+        <v>0.06293764881940778</v>
       </c>
       <c r="D14">
-        <v>0.02024188600027088</v>
+        <v>0.03128078546239976</v>
       </c>
       <c r="E14">
-        <v>0.2728590980779373</v>
+        <v>0.2546901148229139</v>
       </c>
       <c r="F14">
-        <v>1.372492968955129</v>
+        <v>1.162539478275747</v>
       </c>
       <c r="G14">
-        <v>1.290999964352551</v>
+        <v>1.200741314964517</v>
       </c>
       <c r="H14">
-        <v>0.193762991880277</v>
+        <v>0.1899204122153861</v>
       </c>
       <c r="I14">
-        <v>0.08945997478801093</v>
+        <v>0.06977658898206673</v>
       </c>
       <c r="J14">
-        <v>0.6807952798152996</v>
+        <v>0.4811494164821113</v>
       </c>
       <c r="K14">
-        <v>1.020485211530058</v>
+        <v>0.7787889901673068</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3072057700009836</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3262438714986686</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,13 +1183,19 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>4.115200147283986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>3.382487067416434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08992253589993737</v>
+        <v>0.06250341864856779</v>
       </c>
       <c r="D15">
-        <v>0.0206424726465535</v>
+        <v>0.03152612553637368</v>
       </c>
       <c r="E15">
-        <v>0.2328781390494186</v>
+        <v>0.2155327649835215</v>
       </c>
       <c r="F15">
-        <v>1.341648080386122</v>
+        <v>1.13968847435396</v>
       </c>
       <c r="G15">
-        <v>1.25860665400711</v>
+        <v>1.160554203298119</v>
       </c>
       <c r="H15">
-        <v>0.2053413987985238</v>
+        <v>0.2016188529739509</v>
       </c>
       <c r="I15">
-        <v>0.08800222139102054</v>
+        <v>0.06880045670577051</v>
       </c>
       <c r="J15">
-        <v>0.6653110686510217</v>
+        <v>0.484795786762561</v>
       </c>
       <c r="K15">
-        <v>0.9969477700703209</v>
+        <v>0.7634049789566149</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3034033006639092</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3179349791980002</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,13 +1242,19 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>4.014088519108157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>3.310289391636275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08539196058920595</v>
+        <v>0.05984443762347702</v>
       </c>
       <c r="D16">
-        <v>0.01933896492338505</v>
+        <v>0.02872511138122746</v>
       </c>
       <c r="E16">
-        <v>0.2277060750688484</v>
+        <v>0.2116832143157126</v>
       </c>
       <c r="F16">
-        <v>1.261518257990645</v>
+        <v>1.087986502275029</v>
       </c>
       <c r="G16">
-        <v>1.181882717583562</v>
+        <v>1.041385929147523</v>
       </c>
       <c r="H16">
-        <v>0.1892391067326997</v>
+        <v>0.1859646639358346</v>
       </c>
       <c r="I16">
-        <v>0.08153447467275132</v>
+        <v>0.06427389619609425</v>
       </c>
       <c r="J16">
-        <v>0.6308761658279138</v>
+        <v>0.5327059386887214</v>
       </c>
       <c r="K16">
-        <v>0.9394343207735147</v>
+        <v>0.7325647965092656</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3016395568168946</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2941357218002949</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,13 +1301,19 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>3.779183616130354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>3.174622660612897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08149667158595264</v>
+        <v>0.05810874251579756</v>
       </c>
       <c r="D17">
-        <v>0.01730433841777312</v>
+        <v>0.02570060045704636</v>
       </c>
       <c r="E17">
-        <v>0.3165325497434068</v>
+        <v>0.3001035914446462</v>
       </c>
       <c r="F17">
-        <v>1.246524805171703</v>
+        <v>1.082925416895549</v>
       </c>
       <c r="G17">
-        <v>1.173315032796211</v>
+        <v>1.012556835536245</v>
       </c>
       <c r="H17">
-        <v>0.1502430821052769</v>
+        <v>0.1471420665978087</v>
       </c>
       <c r="I17">
-        <v>0.07837146595181643</v>
+        <v>0.06203320948503244</v>
       </c>
       <c r="J17">
-        <v>0.6289680838805509</v>
+        <v>0.5655805969111896</v>
       </c>
       <c r="K17">
-        <v>0.9305170396453093</v>
+        <v>0.7321081102510405</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3072057025478472</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2870976735699102</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,13 +1360,19 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>3.756914314636049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>3.185218760310761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07864895891423629</v>
+        <v>0.05741310576783487</v>
       </c>
       <c r="D18">
-        <v>0.0145616960727466</v>
+        <v>0.02210104418552916</v>
       </c>
       <c r="E18">
-        <v>0.5609505938124428</v>
+        <v>0.5423919047732895</v>
       </c>
       <c r="F18">
-        <v>1.287963538214001</v>
+        <v>1.122428221413827</v>
       </c>
       <c r="G18">
-        <v>1.22525727860986</v>
+        <v>1.048475417443456</v>
       </c>
       <c r="H18">
-        <v>0.09854612112691541</v>
+        <v>0.09538228539145877</v>
       </c>
       <c r="I18">
-        <v>0.07764579696534035</v>
+        <v>0.06142540122336726</v>
       </c>
       <c r="J18">
-        <v>0.6560678672090887</v>
+        <v>0.6040326660396005</v>
       </c>
       <c r="K18">
-        <v>0.9652082705737683</v>
+        <v>0.7623396870396206</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3215338863489734</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2952670719108923</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,13 +1419,19 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>3.923692986518972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>3.341581070261668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07581091369414139</v>
+        <v>0.05800476272847588</v>
       </c>
       <c r="D19">
-        <v>0.0119054908555718</v>
+        <v>0.01868099974810633</v>
       </c>
       <c r="E19">
-        <v>1.012642525252986</v>
+        <v>0.9902455200995774</v>
       </c>
       <c r="F19">
-        <v>1.368491202284176</v>
+        <v>1.193007228126575</v>
       </c>
       <c r="G19">
-        <v>1.318970649120018</v>
+        <v>1.126523864686533</v>
       </c>
       <c r="H19">
-        <v>0.05730105155353016</v>
+        <v>0.05382923697722219</v>
       </c>
       <c r="I19">
-        <v>0.07941194631092419</v>
+        <v>0.06276438627219694</v>
       </c>
       <c r="J19">
-        <v>0.7027001850121337</v>
+        <v>0.6483368815015638</v>
       </c>
       <c r="K19">
-        <v>1.027577141586193</v>
+        <v>0.8115846735079657</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3405807087556241</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3137458905068442</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,13 +1478,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>4.2199651094258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>3.598262008486699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07570528322095527</v>
+        <v>0.06264070773651831</v>
       </c>
       <c r="D20">
-        <v>0.009204043376364268</v>
+        <v>0.01527321862426234</v>
       </c>
       <c r="E20">
-        <v>2.025986799777911</v>
+        <v>1.994269335788232</v>
       </c>
       <c r="F20">
-        <v>1.56580292635374</v>
+        <v>1.356986564480962</v>
       </c>
       <c r="G20">
-        <v>1.537867739669878</v>
+        <v>1.329703177800781</v>
       </c>
       <c r="H20">
-        <v>0.04381470660886411</v>
+        <v>0.0392849354311382</v>
       </c>
       <c r="I20">
-        <v>0.08797991359471169</v>
+        <v>0.06902439139963334</v>
       </c>
       <c r="J20">
-        <v>0.8079985536343202</v>
+        <v>0.7118852790335097</v>
       </c>
       <c r="K20">
-        <v>1.177368041835251</v>
+        <v>0.9222631846392062</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3748827264463657</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3653041769560872</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,13 +1537,19 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>4.904570173120305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>4.157378631395147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08235705775353352</v>
+        <v>0.06819638550346774</v>
       </c>
       <c r="D21">
-        <v>0.009983718662173402</v>
+        <v>0.01776976529045982</v>
       </c>
       <c r="E21">
-        <v>2.370499516625699</v>
+        <v>2.331083756627706</v>
       </c>
       <c r="F21">
-        <v>1.771281479788826</v>
+        <v>1.494414902684582</v>
       </c>
       <c r="G21">
-        <v>1.74607634809766</v>
+        <v>1.6341471273862</v>
       </c>
       <c r="H21">
-        <v>0.05413038889454924</v>
+        <v>0.048311116003938</v>
       </c>
       <c r="I21">
-        <v>0.1022885696665057</v>
+        <v>0.07903131588504397</v>
       </c>
       <c r="J21">
-        <v>0.904042556140439</v>
+        <v>0.6110753312609347</v>
       </c>
       <c r="K21">
-        <v>1.327286796933095</v>
+        <v>1.007179213887838</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.385944446289848</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.422938212716339</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,13 +1596,19 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>5.547316425414976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>4.55561622459237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08757884558426099</v>
+        <v>0.07167556808973252</v>
       </c>
       <c r="D22">
-        <v>0.01057031496257821</v>
+        <v>0.01961552193954219</v>
       </c>
       <c r="E22">
-        <v>2.543284229145755</v>
+        <v>2.498965600984548</v>
       </c>
       <c r="F22">
-        <v>1.902888159021913</v>
+        <v>1.579102487913048</v>
       </c>
       <c r="G22">
-        <v>1.878745654519662</v>
+        <v>1.844081101806836</v>
       </c>
       <c r="H22">
-        <v>0.06072640051358302</v>
+        <v>0.05403925364690654</v>
       </c>
       <c r="I22">
-        <v>0.1117087110366333</v>
+        <v>0.08544693082649069</v>
       </c>
       <c r="J22">
-        <v>0.965222808316696</v>
+        <v>0.5411685153725188</v>
       </c>
       <c r="K22">
-        <v>1.424603971878668</v>
+        <v>1.060333742467151</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3921610861353315</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4602885408809527</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,13 +1655,19 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>5.956825053853038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>4.796876956899155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08556869056152294</v>
+        <v>0.06977464438829095</v>
       </c>
       <c r="D23">
-        <v>0.01021046354227195</v>
+        <v>0.01843651872794894</v>
       </c>
       <c r="E23">
-        <v>2.451128574751706</v>
+        <v>2.409555250304393</v>
       </c>
       <c r="F23">
-        <v>1.835613354265647</v>
+        <v>1.540356606694274</v>
       </c>
       <c r="G23">
-        <v>1.811393575130154</v>
+        <v>1.719608985393791</v>
       </c>
       <c r="H23">
-        <v>0.05719717953784897</v>
+        <v>0.05099451659818666</v>
       </c>
       <c r="I23">
-        <v>0.1065703264042179</v>
+        <v>0.08188339827034508</v>
       </c>
       <c r="J23">
-        <v>0.9342754307453447</v>
+        <v>0.5967959283286177</v>
       </c>
       <c r="K23">
-        <v>1.376651618281159</v>
+        <v>1.037989445843223</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3909551594213667</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4427841915955</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,13 +1714,19 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>5.749159976962972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>4.691390500175316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07668380781068151</v>
+        <v>0.06274448480382055</v>
       </c>
       <c r="D24">
-        <v>0.008930085994213854</v>
+        <v>0.01484462570242329</v>
       </c>
       <c r="E24">
-        <v>2.104268661667476</v>
+        <v>2.07193478008584</v>
       </c>
       <c r="F24">
-        <v>1.578015779086087</v>
+        <v>1.368034934690883</v>
       </c>
       <c r="G24">
-        <v>1.552479128074452</v>
+        <v>1.341544603470709</v>
       </c>
       <c r="H24">
-        <v>0.0445394416799747</v>
+        <v>0.0399503972616424</v>
       </c>
       <c r="I24">
-        <v>0.08800667467962686</v>
+        <v>0.0688604121159111</v>
       </c>
       <c r="J24">
-        <v>0.8152328716831221</v>
+        <v>0.7197031437037253</v>
       </c>
       <c r="K24">
-        <v>1.18949001462579</v>
+        <v>0.9324162426076583</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3788418625975041</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3690806114728176</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,13 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>4.950687592157465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>4.198625399826255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06708236170027604</v>
+        <v>0.05503164144139117</v>
       </c>
       <c r="D25">
-        <v>0.007558406983486421</v>
+        <v>0.0121644580389173</v>
       </c>
       <c r="E25">
-        <v>1.734183599524442</v>
+        <v>1.709342240140259</v>
       </c>
       <c r="F25">
-        <v>1.304079724351126</v>
+        <v>1.142969432452404</v>
       </c>
       <c r="G25">
-        <v>1.276648154575724</v>
+        <v>1.098579913977318</v>
       </c>
       <c r="H25">
-        <v>0.03224630971893649</v>
+        <v>0.02896569187715148</v>
       </c>
       <c r="I25">
-        <v>0.06941397604049726</v>
+        <v>0.05511295290915275</v>
       </c>
       <c r="J25">
-        <v>0.6886830551774779</v>
+        <v>0.6384810828917011</v>
       </c>
       <c r="K25">
-        <v>0.9894555656664181</v>
+        <v>0.7897984946665062</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.354351462920917</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2811645373865446</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
-        <v>4.100568812889207</v>
+      <c r="S25">
+        <v>3.523225304653749</v>
       </c>
     </row>
   </sheetData>
